--- a/ANN Tmin/Tmin_output.xlsx
+++ b/ANN Tmin/Tmin_output.xlsx
@@ -1529,8 +1529,8 @@
   </sheetPr>
   <dimension ref="A1:A377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="A377" sqref="A2:A377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1542,1882 +1542,1882 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>332.4546508789062</v>
+        <v>338.5153503417969</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>430.94384765625</v>
+        <v>483.7816467285156</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>541.3062744140625</v>
+        <v>565.4462890625</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>643.1321411132812</v>
+        <v>611.526611328125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>729.7546997070312</v>
+        <v>635.846923828125</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>332.4546508789062</v>
+        <v>338.5153503417969</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>332.4546508789062</v>
+        <v>338.5153503417969</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>332.4546508789062</v>
+        <v>338.5153503417969</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>356.82666015625</v>
+        <v>341.9595031738281</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="n">
-        <v>550.5657958984375</v>
+        <v>569.8067626953125</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="n">
-        <v>356.82666015625</v>
+        <v>341.9595031738281</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="n">
-        <v>541.80322265625</v>
+        <v>534.7734985351562</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="n">
-        <v>356.82666015625</v>
+        <v>341.9595031738281</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="n">
-        <v>541.80322265625</v>
+        <v>534.7734985351562</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="n">
-        <v>356.82666015625</v>
+        <v>341.9595031738281</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="n">
-        <v>550.5657958984375</v>
+        <v>569.8067626953125</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="n">
-        <v>370.49755859375</v>
+        <v>342.7025146484375</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="n">
-        <v>409.7891235351562</v>
+        <v>400.7439575195312</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="n">
-        <v>446.301513671875</v>
+        <v>427.29638671875</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="n">
-        <v>447.1569519042969</v>
+        <v>428.0696105957031</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="n">
-        <v>481.0093383789062</v>
+        <v>451.832275390625</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="n">
-        <v>482.4021911621094</v>
+        <v>482.0733032226562</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="n">
-        <v>481.7744445800781</v>
+        <v>482.7039794921875</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="n">
-        <v>476.5460510253906</v>
+        <v>488.9141540527344</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="n">
-        <v>507.3700256347656</v>
+        <v>529.6239624023438</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="n">
-        <v>513.8587646484375</v>
+        <v>534.4547119140625</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="n">
-        <v>521.5135498046875</v>
+        <v>540.5115966796875</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="n">
-        <v>527.712890625</v>
+        <v>545.884521484375</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="n">
-        <v>548.7142333984375</v>
+        <v>571.2549438476562</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="n">
-        <v>550.5198364257812</v>
+        <v>574.4111328125</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="n">
-        <v>551.8043212890625</v>
+        <v>576.801025390625</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="n">
-        <v>555.7426147460938</v>
+        <v>584.8902587890625</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="n">
-        <v>563.420654296875</v>
+        <v>602.968017578125</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="n">
-        <v>368.0570983886719</v>
+        <v>344.972900390625</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="n">
-        <v>335.8248596191406</v>
+        <v>421.9720764160156</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="n">
-        <v>431.5183715820312</v>
+        <v>484.06640625</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="n">
-        <v>546.9754028320312</v>
+        <v>537.4775390625</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="n">
-        <v>544.737060546875</v>
+        <v>571.9991455078125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="n">
-        <v>598.6032104492188</v>
+        <v>600.6873779296875</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="n">
-        <v>624.481689453125</v>
+        <v>618.8062744140625</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="n">
-        <v>314.2357788085938</v>
+        <v>342.32421875</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="n">
-        <v>312.3561401367188</v>
+        <v>334.2427673339844</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="n">
-        <v>310.2065124511719</v>
+        <v>327.3488159179688</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="n">
-        <v>307.581787109375</v>
+        <v>320.6314697265625</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="n">
-        <v>304.4799194335938</v>
+        <v>314.1059265136719</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="n">
-        <v>300.1053161621094</v>
+        <v>306.5885009765625</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="n">
-        <v>296.2108154296875</v>
+        <v>301.0682373046875</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="n">
-        <v>290.9835205078125</v>
+        <v>294.8798217773438</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="n">
-        <v>284.9898681640625</v>
+        <v>288.9049377441406</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="n">
-        <v>278.7055969238281</v>
+        <v>282.8870239257812</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="n">
-        <v>276.2755737304688</v>
+        <v>277.3067932128906</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="n">
-        <v>275.0768432617188</v>
+        <v>271.6475219726562</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="n">
-        <v>269.3522644042969</v>
+        <v>268.0270385742188</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="n">
-        <v>253.9606628417969</v>
+        <v>260.8612670898438</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="n">
-        <v>244.2154998779297</v>
+        <v>256.3184204101562</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="n">
-        <v>237.0462493896484</v>
+        <v>250.7092895507812</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="n">
-        <v>235.3914184570312</v>
+        <v>246.6750030517578</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="n">
-        <v>238.1922760009766</v>
+        <v>239.4506225585938</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="n">
-        <v>224.7955627441406</v>
+        <v>233.3134155273438</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="n">
-        <v>221.8532409667969</v>
+        <v>227.5180053710938</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="n">
-        <v>221.7333831787109</v>
+        <v>221.4679565429688</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="n">
-        <v>221.7685546875</v>
+        <v>226.9319000244141</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="n">
-        <v>225.1052093505859</v>
+        <v>233.5644226074219</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="n">
-        <v>236.4142761230469</v>
+        <v>240.3778991699219</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="n">
-        <v>236.1098175048828</v>
+        <v>246.8761901855469</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="n">
-        <v>237.7008514404297</v>
+        <v>252.0296478271484</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="n">
-        <v>245.6262054443359</v>
+        <v>257.0204467773438</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="n">
-        <v>255.8444366455078</v>
+        <v>261.7020874023438</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="n">
-        <v>268.4284362792969</v>
+        <v>267.5499572753906</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="n">
-        <v>275.9172058105469</v>
+        <v>272.5230712890625</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="n">
-        <v>276.2262573242188</v>
+        <v>277.8427429199219</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="n">
-        <v>279.101318359375</v>
+        <v>283.3123474121094</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="n">
-        <v>284.4902954101562</v>
+        <v>288.4385070800781</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="n">
-        <v>291.1628723144531</v>
+        <v>295.0740966796875</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="n">
-        <v>296.68798828125</v>
+        <v>301.6966552734375</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="n">
-        <v>300.994873046875</v>
+        <v>307.9893188476562</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="n">
-        <v>304.368896484375</v>
+        <v>313.8935546875</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="n">
-        <v>307.4276733398438</v>
+        <v>320.2763977050781</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="n">
-        <v>310.5781860351562</v>
+        <v>328.4273681640625</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="n">
-        <v>312.69873046875</v>
+        <v>335.525634765625</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="n">
-        <v>314.3255004882812</v>
+        <v>342.7932739257812</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="n">
-        <v>485.0921936035156</v>
+        <v>492.7783203125</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="n">
-        <v>497.9150390625</v>
+        <v>486.1020812988281</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="n">
-        <v>507.8881225585938</v>
+        <v>479.8101806640625</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="n">
-        <v>507.1858215332031</v>
+        <v>471.7400512695312</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="n">
-        <v>421.2528686523438</v>
+        <v>466.64306640625</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="n">
-        <v>406.4850463867188</v>
+        <v>460.4872131347656</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="n">
-        <v>419.7283325195312</v>
+        <v>456.9450073242188</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="n">
-        <v>511.2085266113281</v>
+        <v>455.1883239746094</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="n">
-        <v>477.7365417480469</v>
+        <v>453.125244140625</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="n">
-        <v>383.4869384765625</v>
+        <v>451.4036865234375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="n">
-        <v>510.6983947753906</v>
+        <v>449.1457824707031</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="n">
-        <v>483.3165588378906</v>
+        <v>446.987548828125</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="n">
-        <v>474.3218383789062</v>
+        <v>445.6930541992188</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="n">
-        <v>474.59033203125</v>
+        <v>444.57421875</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="n">
-        <v>484.9384765625</v>
+        <v>492.8506774902344</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="n">
-        <v>508.0094299316406</v>
+        <v>479.7232666015625</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="n">
-        <v>422.2047424316406</v>
+        <v>466.7163391113281</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="n">
-        <v>417.63427734375</v>
+        <v>457.0283203125</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="n">
-        <v>406.5655517578125</v>
+        <v>460.8417053222656</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="n">
-        <v>374.9859619140625</v>
+        <v>451.6163940429688</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="n">
-        <v>301.7689819335938</v>
+        <v>319.5155639648438</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="n">
-        <v>299.60986328125</v>
+        <v>312.7389526367188</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="n">
-        <v>296.7237548828125</v>
+        <v>306.2872314453125</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="n">
-        <v>293.470458984375</v>
+        <v>300.4231567382812</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="n">
-        <v>289.7851257324219</v>
+        <v>294.6119079589844</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="n">
-        <v>285.7744750976562</v>
+        <v>288.8844299316406</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="n">
-        <v>282.3375549316406</v>
+        <v>284.42626953125</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="n">
-        <v>278.2753295898438</v>
+        <v>279.7633361816406</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="n">
-        <v>272.5297241210938</v>
+        <v>274.3445739746094</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="n">
-        <v>266.9371948242188</v>
+        <v>270.2216186523438</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="n">
-        <v>259.6681518554688</v>
+        <v>266.0864868164062</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="n">
-        <v>249.8049468994141</v>
+        <v>261.8676452636719</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="n">
-        <v>240.0011596679688</v>
+        <v>258.3890380859375</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="n">
-        <v>240.1267852783203</v>
+        <v>254.0346984863281</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="n">
-        <v>232.3335418701172</v>
+        <v>249.3197174072266</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="n">
-        <v>222.6529693603516</v>
+        <v>244.2044525146484</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="n">
-        <v>228.1961364746094</v>
+        <v>238.7276000976562</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="n">
-        <v>217.8046264648438</v>
+        <v>221.8946990966797</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="n">
-        <v>215.5941619873047</v>
+        <v>209.4586029052734</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="n">
-        <v>216.6317749023438</v>
+        <v>194.5440368652344</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="n">
-        <v>215.5950469970703</v>
+        <v>209.6531219482422</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="n">
-        <v>219.5873107910156</v>
+        <v>223.6823425292969</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="n">
-        <v>220.5879821777344</v>
+        <v>233.2592926025391</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="n">
-        <v>225.9435424804688</v>
+        <v>239.5563049316406</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="n">
-        <v>224.5704956054688</v>
+        <v>245.7508544921875</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="n">
-        <v>234.0462036132812</v>
+        <v>249.9472045898438</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="n">
-        <v>238.967529296875</v>
+        <v>254.6962280273438</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="n">
-        <v>241.4621124267578</v>
+        <v>258.9286499023438</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="n">
-        <v>250.0930480957031</v>
+        <v>261.9752197265625</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="n">
-        <v>259.7064819335938</v>
+        <v>266.1056213378906</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="n">
-        <v>267.1289672851562</v>
+        <v>270.347412109375</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="n">
-        <v>273.5162658691406</v>
+        <v>275.1818237304688</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="n">
-        <v>278.4023132324219</v>
+        <v>279.8986206054688</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="n">
-        <v>282.1885986328125</v>
+        <v>284.2429809570312</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="n">
-        <v>285.9096069335938</v>
+        <v>289.068359375</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="n">
-        <v>289.6615905761719</v>
+        <v>294.4271850585938</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="n">
-        <v>293.5968627929688</v>
+        <v>300.635009765625</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="n">
-        <v>297.0506896972656</v>
+        <v>306.939208984375</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="n">
-        <v>300.0364990234375</v>
+        <v>313.8813171386719</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="n">
-        <v>302.0249938964844</v>
+        <v>320.5613403320312</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="n">
-        <v>215.5986938476562</v>
+        <v>210.1491241455078</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="n">
-        <v>218.0565338134766</v>
+        <v>222.2158660888672</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="n">
-        <v>222.6158294677734</v>
+        <v>231.8048706054688</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="n">
-        <v>226.0056610107422</v>
+        <v>239.5317687988281</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="n">
-        <v>223.5658721923828</v>
+        <v>245.0464019775391</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="n">
-        <v>234.6170806884766</v>
+        <v>250.1528472900391</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="n">
-        <v>239.9542083740234</v>
+        <v>254.1512298583984</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="n">
-        <v>239.6268768310547</v>
+        <v>258.2422180175781</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="n">
-        <v>251.9854736328125</v>
+        <v>262.70166015625</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="n">
-        <v>260.126708984375</v>
+        <v>266.3159484863281</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="n">
-        <v>267.7036743164062</v>
+        <v>270.730224609375</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="n">
-        <v>273.2957153320312</v>
+        <v>274.9915161132812</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="n">
-        <v>278.039306640625</v>
+        <v>279.5139465332031</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="n">
-        <v>282.0682067871094</v>
+        <v>284.0957946777344</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="n">
-        <v>286.3054809570312</v>
+        <v>289.6113586425781</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="n">
-        <v>289.73193359375</v>
+        <v>294.5322875976562</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="n">
-        <v>293.9741821289062</v>
+        <v>301.2734375</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="n">
-        <v>296.8582153320312</v>
+        <v>306.5534362792969</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="n">
-        <v>300.0896301269531</v>
+        <v>314.0283203125</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="n">
-        <v>301.9995727539062</v>
+        <v>320.4539489746094</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="n">
-        <v>285.1358642578125</v>
+        <v>326.5825500488281</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="n">
-        <v>591.4437255859375</v>
+        <v>618.5960693359375</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="n">
-        <v>383.6252136230469</v>
+        <v>381.68310546875</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="n">
-        <v>383.5568237304688</v>
+        <v>384.19384765625</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="n">
-        <v>384.2354736328125</v>
+        <v>389.1636352539062</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="n">
-        <v>385.0448608398438</v>
+        <v>391.6224975585938</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="n">
-        <v>384.4085083007812</v>
+        <v>376.610107421875</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="n">
-        <v>383.6252136230469</v>
+        <v>381.68310546875</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="n">
-        <v>384.4085083007812</v>
+        <v>376.610107421875</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="n">
-        <v>384.4085083007812</v>
+        <v>376.610107421875</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="n">
-        <v>384.4085083007812</v>
+        <v>376.610107421875</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="n">
-        <v>384.4085083007812</v>
+        <v>376.610107421875</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="n">
-        <v>406.905517578125</v>
+        <v>412.9719543457031</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="n">
-        <v>406.905517578125</v>
+        <v>412.9719543457031</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="n">
-        <v>406.905517578125</v>
+        <v>412.9719543457031</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="n">
-        <v>464.7118530273438</v>
+        <v>443.3920593261719</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="n">
-        <v>471.3965759277344</v>
+        <v>445.4361572265625</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="n">
-        <v>471.3965759277344</v>
+        <v>445.4361572265625</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="n">
-        <v>471.3965759277344</v>
+        <v>445.4361572265625</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="n">
-        <v>439.4410400390625</v>
+        <v>484.5361328125</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="n">
-        <v>446.2294311523438</v>
+        <v>482.8353271484375</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="n">
-        <v>439.4410400390625</v>
+        <v>484.5361328125</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="n">
-        <v>439.4410400390625</v>
+        <v>484.5361328125</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="n">
-        <v>494.4352111816406</v>
+        <v>472.2992553710938</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="n">
-        <v>494.4352111816406</v>
+        <v>472.2992553710938</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="n">
-        <v>486.6445007324219</v>
+        <v>474.0951538085938</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="n">
-        <v>501.4524536132812</v>
+        <v>470.4873657226562</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="n">
-        <v>595.891845703125</v>
+        <v>577.9427490234375</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="n">
-        <v>597.335693359375</v>
+        <v>578.4639892578125</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="n">
-        <v>594.4232177734375</v>
+        <v>577.4176025390625</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="n">
-        <v>374.0222778320312</v>
+        <v>385.5123596191406</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="n">
-        <v>475.9110107421875</v>
+        <v>475.8771362304688</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="n">
-        <v>475.9110107421875</v>
+        <v>475.8771362304688</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="n">
-        <v>475.9110107421875</v>
+        <v>475.8771362304688</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="n">
-        <v>469.2490539550781</v>
+        <v>477.0558471679688</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="n">
-        <v>555.088134765625</v>
+        <v>564.3991088867188</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="n">
-        <v>556.8688354492188</v>
+        <v>564.960693359375</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="n">
-        <v>555.088134765625</v>
+        <v>564.3991088867188</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="n">
-        <v>640.7903442382812</v>
+        <v>624.3778686523438</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="n">
-        <v>640.490966796875</v>
+        <v>624.4984130859375</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="n">
-        <v>641.0899047851562</v>
+        <v>624.256591796875</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="n">
-        <v>603.0059814453125</v>
+        <v>640.04052734375</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="n">
-        <v>603.0059814453125</v>
+        <v>640.04052734375</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="n">
-        <v>639.595947265625</v>
+        <v>650.494873046875</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="n">
-        <v>640.0548095703125</v>
+        <v>650.602294921875</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="n">
-        <v>645.281494140625</v>
+        <v>680.211181640625</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="n">
-        <v>656.082275390625</v>
+        <v>663.6868286132812</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="n">
-        <v>656.459228515625</v>
+        <v>663.1502685546875</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="n">
-        <v>656.1222534179688</v>
+        <v>663.6327514648438</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="n">
-        <v>639.416259765625</v>
+        <v>650.4529418945312</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="n">
-        <v>639.416259765625</v>
+        <v>650.4529418945312</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="n">
-        <v>640.2900390625</v>
+        <v>650.6577758789062</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="n">
-        <v>640.11669921875</v>
+        <v>650.6167602539062</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="n">
-        <v>603.0083618164062</v>
+        <v>640.086181640625</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="n">
-        <v>603.0083618164062</v>
+        <v>640.086181640625</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="n">
-        <v>603.0159912109375</v>
+        <v>640.163818359375</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="n">
-        <v>603.0083618164062</v>
+        <v>640.086181640625</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="n">
-        <v>603.005615234375</v>
+        <v>639.9697265625</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="n">
-        <v>633.3935546875</v>
+        <v>627.1876220703125</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="n">
-        <v>634.669921875</v>
+        <v>626.7247314453125</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="n">
-        <v>634.541748046875</v>
+        <v>626.771484375</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="n">
-        <v>640.010986328125</v>
+        <v>624.6903076171875</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="n">
-        <v>640.40673828125</v>
+        <v>624.5322875976562</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="n">
-        <v>640.6705932617188</v>
+        <v>624.4262084960938</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="n">
-        <v>585.8370971679688</v>
+        <v>573.5850219726562</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="n">
-        <v>586.94189453125</v>
+        <v>573.8985595703125</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="n">
-        <v>586.94189453125</v>
+        <v>573.8985595703125</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="n">
-        <v>588.0438842773438</v>
+        <v>574.2105712890625</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="n">
-        <v>585.8370971679688</v>
+        <v>573.5850219726562</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="n">
-        <v>554.3675537109375</v>
+        <v>564.1707763671875</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="n">
-        <v>554.3675537109375</v>
+        <v>564.1707763671875</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="n">
-        <v>558.8910522460938</v>
+        <v>565.5936279296875</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="n">
-        <v>558.8910522460938</v>
+        <v>565.5936279296875</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="n">
-        <v>591.332275390625</v>
+        <v>575.1376953125</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="n">
-        <v>558.8910522460938</v>
+        <v>565.5936279296875</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="n">
-        <v>473.1537475585938</v>
+        <v>476.3794860839844</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="n">
-        <v>481.0226135253906</v>
+        <v>474.8757019042969</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="n">
-        <v>418.16943359375</v>
+        <v>484.4342346191406</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="n">
-        <v>408.0683288574219</v>
+        <v>485.8599243164062</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="n">
-        <v>423.3612365722656</v>
+        <v>483.7169799804688</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="n">
-        <v>413.0629272460938</v>
+        <v>485.1485290527344</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="n">
-        <v>413.0629272460938</v>
+        <v>485.1485290527344</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="n">
-        <v>375.4854736328125</v>
+        <v>394.9154052734375</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="n">
-        <v>375.9059143066406</v>
+        <v>395.960693359375</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="n">
-        <v>375.9059143066406</v>
+        <v>395.960693359375</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="n">
-        <v>375.1229248046875</v>
+        <v>393.8665771484375</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="n">
-        <v>374.360595703125</v>
+        <v>390.699951171875</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="n">
-        <v>374.5629577636719</v>
+        <v>391.7589111328125</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="n">
-        <v>384.2105407714844</v>
+        <v>377.5381469726562</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="n">
-        <v>384.2105407714844</v>
+        <v>377.5381469726562</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="n">
-        <v>388.2669677734375</v>
+        <v>384.6643676757812</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="n">
-        <v>390.4479370117188</v>
+        <v>387.3677978515625</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="n">
-        <v>405.2138977050781</v>
+        <v>397.9639892578125</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="n">
-        <v>417.1734924316406</v>
+        <v>403.1334228515625</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="n">
-        <v>430.2234802246094</v>
+        <v>407.5875244140625</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="n">
-        <v>456.7393798828125</v>
+        <v>415.0752563476562</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="n">
-        <v>454.4107971191406</v>
+        <v>414.4581909179688</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="n">
-        <v>479.8830871582031</v>
+        <v>421.1744995117188</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="n">
-        <v>519.880615234375</v>
+        <v>505.841064453125</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="n">
-        <v>555.9194946289062</v>
+        <v>522.2251586914062</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="n">
-        <v>589.7098999023438</v>
+        <v>536.592529296875</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="n">
-        <v>616.697509765625</v>
+        <v>552.234130859375</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="n">
-        <v>633.7288818359375</v>
+        <v>582.3552856445312</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="n">
-        <v>639.6641845703125</v>
+        <v>598.03466796875</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="n">
-        <v>642.935791015625</v>
+        <v>604.1761474609375</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="n">
-        <v>647.66357421875</v>
+        <v>616.6138916015625</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="n">
-        <v>375.2762451171875</v>
+        <v>410.3703308105469</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="n">
-        <v>375.8111877441406</v>
+        <v>410.4866027832031</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="n">
-        <v>410.3529052734375</v>
+        <v>418.476806640625</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="n">
-        <v>487.2255859375</v>
+        <v>459.7921142578125</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="n">
-        <v>501.7892456054688</v>
+        <v>480.3984069824219</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="n">
-        <v>552.7415161132812</v>
+        <v>532.2803955078125</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="n">
-        <v>593.518310546875</v>
+        <v>579.9939575195312</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="n">
-        <v>582.197998046875</v>
+        <v>640.6995849609375</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="n">
-        <v>375.4746704101562</v>
+        <v>387.1737670898438</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="n">
-        <v>377.1038818359375</v>
+        <v>391.5955810546875</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="n">
-        <v>377.639404296875</v>
+        <v>393.5429077148438</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="n">
-        <v>377.639404296875</v>
+        <v>393.5429077148438</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="n">
-        <v>383.9506225585938</v>
+        <v>414.2508544921875</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="n">
-        <v>381.1468200683594</v>
+        <v>408.2672729492188</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="n">
-        <v>382.0516357421875</v>
+        <v>410.5818176269531</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="n">
-        <v>418.4184265136719</v>
+        <v>437.938720703125</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="n">
-        <v>473.3512268066406</v>
+        <v>481.4811706542969</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="n">
-        <v>500.0852966308594</v>
+        <v>514.39990234375</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="n">
-        <v>488.6898803710938</v>
+        <v>499.041015625</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="n">
-        <v>500.9894409179688</v>
+        <v>515.63134765625</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="n">
-        <v>556.4996337890625</v>
+        <v>565.381591796875</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="n">
-        <v>576.0279541015625</v>
+        <v>593.413330078125</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="n">
-        <v>594.4909057617188</v>
+        <v>639.1787109375</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="n">
-        <v>589.730224609375</v>
+        <v>642.79833984375</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="n">
-        <v>612.509765625</v>
+        <v>684.625244140625</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="n">
-        <v>423.9527587890625</v>
+        <v>409.93603515625</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="n">
-        <v>368.9755249023438</v>
+        <v>366.0395202636719</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="n">
-        <v>314.8749389648438</v>
+        <v>304.0734252929688</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="n">
-        <v>310.2818298339844</v>
+        <v>268.4015197753906</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="n">
-        <v>423.9527587890625</v>
+        <v>409.93603515625</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="n">
-        <v>368.9755249023438</v>
+        <v>366.0395202636719</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="n">
-        <v>314.8749389648438</v>
+        <v>304.0734252929688</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="n">
-        <v>310.2818298339844</v>
+        <v>268.4015197753906</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="n">
-        <v>423.9527587890625</v>
+        <v>409.93603515625</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="n">
-        <v>368.9755249023438</v>
+        <v>366.0395202636719</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="n">
-        <v>314.8749389648438</v>
+        <v>304.0734252929688</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="n">
-        <v>310.2818298339844</v>
+        <v>268.4015197753906</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="n">
-        <v>416.9826049804688</v>
+        <v>406.5067138671875</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="n">
-        <v>364.2162475585938</v>
+        <v>358.0543518066406</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="n">
-        <v>324.5940246582031</v>
+        <v>311.7250061035156</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="n">
-        <v>305.0813598632812</v>
+        <v>271.103515625</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="n">
-        <v>416.9826049804688</v>
+        <v>406.5067138671875</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="n">
-        <v>364.2162475585938</v>
+        <v>358.0543518066406</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="n">
-        <v>324.5940246582031</v>
+        <v>311.7250061035156</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="n">
-        <v>305.0813598632812</v>
+        <v>271.103515625</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="n">
-        <v>416.9826049804688</v>
+        <v>406.5067138671875</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="n">
-        <v>364.2162475585938</v>
+        <v>358.0543518066406</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="n">
-        <v>324.5940246582031</v>
+        <v>311.7250061035156</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="n">
-        <v>305.0813598632812</v>
+        <v>271.103515625</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="n">
-        <v>417.4099731445312</v>
+        <v>406.7244873046875</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="n">
-        <v>369.1136169433594</v>
+        <v>366.2593383789062</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="n">
-        <v>309.8320007324219</v>
+        <v>300.1179809570312</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="n">
-        <v>303.3816223144531</v>
+        <v>272.1108703613281</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="n">
-        <v>417.4099731445312</v>
+        <v>406.7244873046875</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="n">
-        <v>369.1136169433594</v>
+        <v>366.2593383789062</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="n">
-        <v>309.8320007324219</v>
+        <v>300.1179809570312</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="n">
-        <v>303.3816223144531</v>
+        <v>272.1108703613281</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="n">
-        <v>417.4099731445312</v>
+        <v>406.7244873046875</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="n">
-        <v>369.1136169433594</v>
+        <v>366.2593383789062</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="n">
-        <v>309.8320007324219</v>
+        <v>300.1179809570312</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="n">
-        <v>303.3816223144531</v>
+        <v>272.1108703613281</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="n">
-        <v>427.1304931640625</v>
+        <v>411.4204711914062</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="n">
-        <v>363.22998046875</v>
+        <v>356.3554077148438</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="n">
-        <v>319.0282592773438</v>
+        <v>307.3074340820312</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="n">
-        <v>310.8765563964844</v>
+        <v>268.1163940429688</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="n">
-        <v>427.1304931640625</v>
+        <v>411.4204711914062</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="n">
-        <v>363.22998046875</v>
+        <v>356.3554077148438</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="n">
-        <v>319.0282592773438</v>
+        <v>307.3074340820312</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="n">
-        <v>310.8765563964844</v>
+        <v>268.1163940429688</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="n">
-        <v>427.1304931640625</v>
+        <v>411.4204711914062</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="n">
-        <v>363.22998046875</v>
+        <v>356.3554077148438</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="n">
-        <v>319.0282592773438</v>
+        <v>307.3074340820312</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="n">
-        <v>310.8765563964844</v>
+        <v>268.1163940429688</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="n">
-        <v>413.2850341796875</v>
+        <v>404.5763549804688</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="n">
-        <v>366.16357421875</v>
+        <v>361.3937377929688</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="n">
-        <v>314.5111999511719</v>
+        <v>303.7904663085938</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="n">
-        <v>310.9316101074219</v>
+        <v>268.0903625488281</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="n">
-        <v>413.2850341796875</v>
+        <v>404.5763549804688</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="n">
-        <v>366.16357421875</v>
+        <v>361.3937377929688</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="n">
-        <v>314.5111999511719</v>
+        <v>303.7904663085938</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="n">
-        <v>310.9316101074219</v>
+        <v>268.0903625488281</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="n">
-        <v>413.2850341796875</v>
+        <v>404.5763549804688</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="n">
-        <v>366.16357421875</v>
+        <v>361.3937377929688</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="n">
-        <v>314.5111999511719</v>
+        <v>303.7904663085938</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="n">
-        <v>310.9316101074219</v>
+        <v>268.0903625488281</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="n">
-        <v>307.1646118164062</v>
+        <v>269.96630859375</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="n">
-        <v>307.1646118164062</v>
+        <v>269.96630859375</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="n">
-        <v>307.1646118164062</v>
+        <v>269.96630859375</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="n">
-        <v>327.3140258789062</v>
+        <v>313.9517822265625</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="n">
-        <v>327.3140258789062</v>
+        <v>313.9517822265625</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="n">
-        <v>327.3140258789062</v>
+        <v>313.9517822265625</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="n">
-        <v>366.8148803710938</v>
+        <v>362.4944458007812</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="n">
-        <v>366.8148803710938</v>
+        <v>362.4944458007812</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="n">
-        <v>366.8148803710938</v>
+        <v>362.4944458007812</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="n">
-        <v>428.5015258789062</v>
+        <v>412.04736328125</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="n">
-        <v>428.5015258789062</v>
+        <v>412.04736328125</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="n">
-        <v>428.5015258789062</v>
+        <v>412.04736328125</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="n">
-        <v>305.5506896972656</v>
+        <v>270.8391723632812</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="n">
-        <v>305.6367797851562</v>
+        <v>270.7913818359375</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="n">
-        <v>295.5765991210938</v>
+        <v>280.0997924804688</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="n">
-        <v>298.9359130859375</v>
+        <v>275.3710021972656</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="n">
-        <v>314.306884765625</v>
+        <v>303.631591796875</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="n">
-        <v>331.4093322753906</v>
+        <v>317.4263916015625</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="n">
-        <v>325.1278686523438</v>
+        <v>312.1578063964844</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="n">
-        <v>370.0733947753906</v>
+        <v>367.7607421875</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="n">
-        <v>295.416748046875</v>
+        <v>280.6619262695312</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="n">
-        <v>370.5980224609375</v>
+        <v>368.5614013671875</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="n">
-        <v>422.2257385253906</v>
+        <v>409.1094360351562</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="n">
-        <v>524.4036865234375</v>
+        <v>445.0269775390625</v>
       </c>
     </row>
   </sheetData>

--- a/ANN Tmin/Tmin_output.xlsx
+++ b/ANN Tmin/Tmin_output.xlsx
@@ -1542,1882 +1542,1882 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>338.5153503417969</v>
+        <v>329.1975708007812</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>483.7816467285156</v>
+        <v>466.9608154296875</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>565.4462890625</v>
+        <v>576.3458251953125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>611.526611328125</v>
+        <v>655.9544067382812</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>635.846923828125</v>
+        <v>711.817138671875</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>338.5153503417969</v>
+        <v>329.1975708007812</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>338.5153503417969</v>
+        <v>342.0653076171875</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>338.5153503417969</v>
+        <v>349.6229858398438</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>341.9595031738281</v>
+        <v>353.5811767578125</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="n">
-        <v>569.8067626953125</v>
+        <v>570.2417602539062</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="n">
-        <v>341.9595031738281</v>
+        <v>353.5811767578125</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="n">
-        <v>534.7734985351562</v>
+        <v>540.6307373046875</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="n">
-        <v>341.9595031738281</v>
+        <v>354.6454467773438</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="n">
-        <v>534.7734985351562</v>
+        <v>537.9412841796875</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="n">
-        <v>341.9595031738281</v>
+        <v>354.6454467773438</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="n">
-        <v>569.8067626953125</v>
+        <v>585.4376831054688</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="n">
-        <v>342.7025146484375</v>
+        <v>354.6944885253906</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="n">
-        <v>400.7439575195312</v>
+        <v>407.1434936523438</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="n">
-        <v>427.29638671875</v>
+        <v>431.6865844726562</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="n">
-        <v>428.0696105957031</v>
+        <v>432.4067687988281</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="n">
-        <v>451.832275390625</v>
+        <v>454.7013244628906</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="n">
-        <v>482.0733032226562</v>
+        <v>483.545166015625</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="n">
-        <v>482.7039794921875</v>
+        <v>484.1526184082031</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="n">
-        <v>488.9141540527344</v>
+        <v>490.1475219726562</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="n">
-        <v>529.6239624023438</v>
+        <v>530.0791015625</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="n">
-        <v>534.4547119140625</v>
+        <v>534.8948974609375</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="n">
-        <v>540.5115966796875</v>
+        <v>540.9576416015625</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="n">
-        <v>545.884521484375</v>
+        <v>546.359375</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="n">
-        <v>571.2549438476562</v>
+        <v>572.178955078125</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="n">
-        <v>574.4111328125</v>
+        <v>575.4293212890625</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="n">
-        <v>576.801025390625</v>
+        <v>577.8961791992188</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="n">
-        <v>584.8902587890625</v>
+        <v>586.2847900390625</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="n">
-        <v>602.968017578125</v>
+        <v>605.2578125</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="n">
-        <v>344.972900390625</v>
+        <v>356.8365478515625</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="n">
-        <v>421.9720764160156</v>
+        <v>428.9772338867188</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="n">
-        <v>484.06640625</v>
+        <v>487.6456298828125</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="n">
-        <v>537.4775390625</v>
+        <v>543.4697265625</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="n">
-        <v>571.9991455078125</v>
+        <v>583.599365234375</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="n">
-        <v>600.6873779296875</v>
+        <v>620.1263427734375</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="n">
-        <v>618.8062744140625</v>
+        <v>645.5626831054688</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="n">
-        <v>342.32421875</v>
+        <v>328.1549377441406</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="n">
-        <v>334.2427673339844</v>
+        <v>323.3014526367188</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="n">
-        <v>327.3488159179688</v>
+        <v>318.8739624023438</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="n">
-        <v>320.6314697265625</v>
+        <v>314.2848205566406</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="n">
-        <v>314.1059265136719</v>
+        <v>309.5474853515625</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="n">
-        <v>306.5885009765625</v>
+        <v>303.7228698730469</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="n">
-        <v>301.0682373046875</v>
+        <v>299.1787109375</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="n">
-        <v>294.8798217773438</v>
+        <v>293.7995300292969</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="n">
-        <v>288.9049377441406</v>
+        <v>288.3063659667969</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="n">
-        <v>282.8870239257812</v>
+        <v>282.4672241210938</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="n">
-        <v>277.3067932128906</v>
+        <v>276.7761840820312</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="n">
-        <v>271.6475219726562</v>
+        <v>270.7407836914062</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="n">
-        <v>268.0270385742188</v>
+        <v>266.7504272460938</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="n">
-        <v>260.8612670898438</v>
+        <v>258.5979614257812</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="n">
-        <v>256.3184204101562</v>
+        <v>253.2936553955078</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="n">
-        <v>250.7092895507812</v>
+        <v>246.6537170410156</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="n">
-        <v>246.6750030517578</v>
+        <v>241.8463439941406</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="n">
-        <v>239.4506225585938</v>
+        <v>233.2298583984375</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="n">
-        <v>233.3134155273438</v>
+        <v>225.9344177246094</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="n">
-        <v>227.5180053710938</v>
+        <v>219.0731201171875</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="n">
-        <v>221.4679565429688</v>
+        <v>211.9293212890625</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="n">
-        <v>226.9319000244141</v>
+        <v>218.3802947998047</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="n">
-        <v>233.5644226074219</v>
+        <v>226.2323150634766</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="n">
-        <v>240.3778991699219</v>
+        <v>234.3345794677734</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="n">
-        <v>246.8761901855469</v>
+        <v>242.0863647460938</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="n">
-        <v>252.0296478271484</v>
+        <v>248.2228546142578</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="n">
-        <v>257.0204467773438</v>
+        <v>254.1184692382812</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="n">
-        <v>261.7020874023438</v>
+        <v>259.569580078125</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="n">
-        <v>267.5499572753906</v>
+        <v>266.2176513671875</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="n">
-        <v>272.5230712890625</v>
+        <v>271.691162109375</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="n">
-        <v>277.8427429199219</v>
+        <v>277.3340454101562</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="n">
-        <v>283.3123474121094</v>
+        <v>282.8901672363281</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="n">
-        <v>288.4385070800781</v>
+        <v>287.8649597167969</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="n">
-        <v>295.0740966796875</v>
+        <v>293.9729614257812</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="n">
-        <v>301.6966552734375</v>
+        <v>299.7078857421875</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="n">
-        <v>307.9893188476562</v>
+        <v>304.8393859863281</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="n">
-        <v>313.8935546875</v>
+        <v>309.3884582519531</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="n">
-        <v>320.2763977050781</v>
+        <v>314.0343322753906</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="n">
-        <v>328.4273681640625</v>
+        <v>319.5849914550781</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="n">
-        <v>335.525634765625</v>
+        <v>324.0953674316406</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="n">
-        <v>342.7932739257812</v>
+        <v>328.4259033203125</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="n">
-        <v>492.7783203125</v>
+        <v>485.2680969238281</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="n">
-        <v>486.1020812988281</v>
+        <v>481.1544494628906</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="n">
-        <v>479.8101806640625</v>
+        <v>476.3535766601562</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="n">
-        <v>471.7400512695312</v>
+        <v>468.7728576660156</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="n">
-        <v>466.64306640625</v>
+        <v>463.1122131347656</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="n">
-        <v>460.4872131347656</v>
+        <v>455.5022888183594</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="n">
-        <v>456.9450073242188</v>
+        <v>451.0350341796875</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="n">
-        <v>455.1883239746094</v>
+        <v>448.9239196777344</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="n">
-        <v>453.125244140625</v>
+        <v>446.6098327636719</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="n">
-        <v>451.4036865234375</v>
+        <v>444.8441772460938</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="n">
-        <v>449.1457824707031</v>
+        <v>442.7636108398438</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="n">
-        <v>446.987548828125</v>
+        <v>441.0025634765625</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="n">
-        <v>445.6930541992188</v>
+        <v>440.0369873046875</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="n">
-        <v>444.57421875</v>
+        <v>439.249267578125</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="n">
-        <v>492.8506774902344</v>
+        <v>485.3073120117188</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="n">
-        <v>479.7232666015625</v>
+        <v>476.2808227539062</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="n">
-        <v>466.7163391113281</v>
+        <v>463.1983032226562</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="n">
-        <v>457.0283203125</v>
+        <v>451.1374206542969</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="n">
-        <v>460.8417053222656</v>
+        <v>455.9537353515625</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="n">
-        <v>451.6163940429688</v>
+        <v>445.0538024902344</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="n">
-        <v>319.5155639648438</v>
+        <v>321.3390808105469</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="n">
-        <v>312.7389526367188</v>
+        <v>314.2725219726562</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="n">
-        <v>306.2872314453125</v>
+        <v>307.3468322753906</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="n">
-        <v>300.4231567382812</v>
+        <v>300.8731384277344</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="n">
-        <v>294.6119079589844</v>
+        <v>294.2842102050781</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="n">
-        <v>288.8844299316406</v>
+        <v>287.623291015625</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="n">
-        <v>284.42626953125</v>
+        <v>282.335205078125</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="n">
-        <v>279.7633361816406</v>
+        <v>276.7305603027344</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="n">
-        <v>274.3445739746094</v>
+        <v>270.1792907714844</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="n">
-        <v>270.2216186523438</v>
+        <v>265.2337036132812</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="n">
-        <v>266.0864868164062</v>
+        <v>260.3901977539062</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="n">
-        <v>261.8676452636719</v>
+        <v>255.6652221679688</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="n">
-        <v>258.3890380859375</v>
+        <v>251.9989013671875</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="n">
-        <v>254.0346984863281</v>
+        <v>247.7441711425781</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="n">
-        <v>249.3197174072266</v>
+        <v>243.5212707519531</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="n">
-        <v>244.2044525146484</v>
+        <v>239.2448883056641</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="n">
-        <v>238.7276000976562</v>
+        <v>234.813232421875</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="n">
-        <v>221.8946990966797</v>
+        <v>220.8656158447266</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="n">
-        <v>209.4586029052734</v>
+        <v>209.8996276855469</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="n">
-        <v>194.5440368652344</v>
+        <v>196.1944580078125</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="n">
-        <v>209.6531219482422</v>
+        <v>210.074951171875</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="n">
-        <v>223.6823425292969</v>
+        <v>222.39599609375</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="n">
-        <v>233.2592926025391</v>
+        <v>230.3828887939453</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="n">
-        <v>239.5563049316406</v>
+        <v>235.4811553955078</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="n">
-        <v>245.7508544921875</v>
+        <v>240.5153503417969</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="n">
-        <v>249.9472045898438</v>
+        <v>244.0641326904297</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="n">
-        <v>254.6962280273438</v>
+        <v>248.3668670654297</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="n">
-        <v>258.9286499023438</v>
+        <v>252.5521545410156</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="n">
-        <v>261.9752197265625</v>
+        <v>255.7822265625</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="n">
-        <v>266.1056213378906</v>
+        <v>260.4119873046875</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="n">
-        <v>270.347412109375</v>
+        <v>265.38330078125</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="n">
-        <v>275.1818237304688</v>
+        <v>271.1903076171875</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="n">
-        <v>279.8986206054688</v>
+        <v>276.8938903808594</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="n">
-        <v>284.2429809570312</v>
+        <v>282.1162719726562</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="n">
-        <v>289.068359375</v>
+        <v>287.8397216796875</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="n">
-        <v>294.4271850585938</v>
+        <v>294.0717163085938</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="n">
-        <v>300.635009765625</v>
+        <v>301.1100769042969</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="n">
-        <v>306.939208984375</v>
+        <v>308.0556335449219</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="n">
-        <v>313.8813171386719</v>
+        <v>315.4780883789062</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="n">
-        <v>320.5613403320312</v>
+        <v>322.4117431640625</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="n">
-        <v>210.1491241455078</v>
+        <v>210.5215759277344</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="n">
-        <v>222.2158660888672</v>
+        <v>221.1414184570312</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="n">
-        <v>231.8048706054688</v>
+        <v>229.1917114257812</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="n">
-        <v>239.5317687988281</v>
+        <v>235.4614105224609</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="n">
-        <v>245.0464019775391</v>
+        <v>239.9349365234375</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="n">
-        <v>250.1528472900391</v>
+        <v>244.2431182861328</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="n">
-        <v>254.1512298583984</v>
+        <v>247.8533020019531</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="n">
-        <v>258.2422180175781</v>
+        <v>251.8491363525391</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="n">
-        <v>262.70166015625</v>
+        <v>256.5773620605469</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="n">
-        <v>266.3159484863281</v>
+        <v>260.654296875</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="n">
-        <v>270.730224609375</v>
+        <v>265.8392944335938</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="n">
-        <v>274.9915161132812</v>
+        <v>270.96044921875</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="n">
-        <v>279.5139465332031</v>
+        <v>276.4293518066406</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="n">
-        <v>284.0957946777344</v>
+        <v>281.9402465820312</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="n">
-        <v>289.6113586425781</v>
+        <v>288.4773864746094</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="n">
-        <v>294.5322875976562</v>
+        <v>294.1926574707031</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="n">
-        <v>301.2734375</v>
+        <v>301.8226013183594</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="n">
-        <v>306.5534362792969</v>
+        <v>307.6366271972656</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="n">
-        <v>314.0283203125</v>
+        <v>315.6329345703125</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="n">
-        <v>320.4539489746094</v>
+        <v>322.3018188476562</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="n">
-        <v>326.5825500488281</v>
+        <v>321.8650207519531</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="n">
-        <v>618.5960693359375</v>
+        <v>568.174072265625</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="n">
-        <v>381.68310546875</v>
+        <v>401.4015197753906</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="n">
-        <v>384.19384765625</v>
+        <v>403.6793212890625</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="n">
-        <v>389.1636352539062</v>
+        <v>408.197509765625</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="n">
-        <v>391.6224975585938</v>
+        <v>410.4376220703125</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="n">
-        <v>376.610107421875</v>
+        <v>396.8085327148438</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="n">
-        <v>381.68310546875</v>
+        <v>401.4015197753906</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="n">
-        <v>376.610107421875</v>
+        <v>396.8085327148438</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="n">
-        <v>376.610107421875</v>
+        <v>396.8085327148438</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="n">
-        <v>376.610107421875</v>
+        <v>396.8085327148438</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="n">
-        <v>376.610107421875</v>
+        <v>396.8085327148438</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="n">
-        <v>412.9719543457031</v>
+        <v>430.0180053710938</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="n">
-        <v>412.9719543457031</v>
+        <v>430.0180053710938</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="n">
-        <v>412.9719543457031</v>
+        <v>430.0180053710938</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="n">
-        <v>443.3920593261719</v>
+        <v>458.3399047851562</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="n">
-        <v>445.4361572265625</v>
+        <v>460.26171875</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="n">
-        <v>445.4361572265625</v>
+        <v>460.26171875</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="n">
-        <v>445.4361572265625</v>
+        <v>460.26171875</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="n">
-        <v>484.5361328125</v>
+        <v>497.4938354492188</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="n">
-        <v>482.8353271484375</v>
+        <v>495.85498046875</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="n">
-        <v>484.5361328125</v>
+        <v>497.4938354492188</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="n">
-        <v>484.5361328125</v>
+        <v>497.4938354492188</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="n">
-        <v>472.2992553710938</v>
+        <v>485.7425537109375</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="n">
-        <v>472.2992553710938</v>
+        <v>485.7425537109375</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="n">
-        <v>474.0951538085938</v>
+        <v>487.4612426757812</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="n">
-        <v>470.4873657226562</v>
+        <v>484.0101928710938</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="n">
-        <v>577.9427490234375</v>
+        <v>590.4354248046875</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="n">
-        <v>578.4639892578125</v>
+        <v>590.9705200195312</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="n">
-        <v>577.4176025390625</v>
+        <v>589.8963012695312</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="n">
-        <v>385.5123596191406</v>
+        <v>388.87890625</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="n">
-        <v>475.8771362304688</v>
+        <v>461.7933349609375</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="n">
-        <v>475.8771362304688</v>
+        <v>461.7933349609375</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="n">
-        <v>475.8771362304688</v>
+        <v>461.7933349609375</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="n">
-        <v>477.0558471679688</v>
+        <v>462.7582702636719</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="n">
-        <v>564.3991088867188</v>
+        <v>536.849609375</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="n">
-        <v>564.960693359375</v>
+        <v>537.3538208007812</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="n">
-        <v>564.3991088867188</v>
+        <v>536.849609375</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="n">
-        <v>624.3778686523438</v>
+        <v>598.1416015625</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="n">
-        <v>624.4984130859375</v>
+        <v>598.3005981445312</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="n">
-        <v>624.256591796875</v>
+        <v>597.9820556640625</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="n">
-        <v>640.04052734375</v>
+        <v>622.5293579101562</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="n">
-        <v>640.04052734375</v>
+        <v>622.5293579101562</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="n">
-        <v>650.494873046875</v>
+        <v>640.2587890625</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="n">
-        <v>650.602294921875</v>
+        <v>640.425537109375</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="n">
-        <v>680.211181640625</v>
+        <v>684.2338256835938</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="n">
-        <v>663.6868286132812</v>
+        <v>659.4520263671875</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="n">
-        <v>663.1502685546875</v>
+        <v>658.7039794921875</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="n">
-        <v>663.6327514648438</v>
+        <v>659.37646484375</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="n">
-        <v>650.4529418945312</v>
+        <v>644.677734375</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="n">
-        <v>650.4529418945312</v>
+        <v>644.677734375</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="n">
-        <v>650.6577758789062</v>
+        <v>644.814697265625</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="n">
-        <v>650.6167602539062</v>
+        <v>644.786865234375</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="n">
-        <v>640.086181640625</v>
+        <v>644.1005859375</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="n">
-        <v>640.086181640625</v>
+        <v>644.1005859375</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="n">
-        <v>640.163818359375</v>
+        <v>644.0655517578125</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="n">
-        <v>640.086181640625</v>
+        <v>644.1005859375</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="n">
-        <v>639.9697265625</v>
+        <v>644.1535034179688</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="n">
-        <v>627.1876220703125</v>
+        <v>646.05126953125</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="n">
-        <v>626.7247314453125</v>
+        <v>645.8714599609375</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="n">
-        <v>626.771484375</v>
+        <v>645.8904418945312</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="n">
-        <v>624.6903076171875</v>
+        <v>644.89599609375</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="n">
-        <v>624.5322875976562</v>
+        <v>644.808349609375</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="n">
-        <v>624.4262084960938</v>
+        <v>644.748291015625</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="n">
-        <v>573.5850219726562</v>
+        <v>582.8563232421875</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="n">
-        <v>573.8985595703125</v>
+        <v>583.3020629882812</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="n">
-        <v>573.8985595703125</v>
+        <v>583.3020629882812</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="n">
-        <v>574.2105712890625</v>
+        <v>583.7454223632812</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="n">
-        <v>573.5850219726562</v>
+        <v>582.8563232421875</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="n">
-        <v>564.1707763671875</v>
+        <v>569.46728515625</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="n">
-        <v>564.1707763671875</v>
+        <v>569.46728515625</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="n">
-        <v>565.5936279296875</v>
+        <v>571.4898681640625</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="n">
-        <v>565.5936279296875</v>
+        <v>571.4898681640625</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="n">
-        <v>575.1376953125</v>
+        <v>585.0625</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="n">
-        <v>565.5936279296875</v>
+        <v>571.4898681640625</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="n">
-        <v>476.3794860839844</v>
+        <v>452.8607177734375</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="n">
-        <v>474.8757019042969</v>
+        <v>451.0423583984375</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="n">
-        <v>484.4342346191406</v>
+        <v>462.7062377929688</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="n">
-        <v>485.8599243164062</v>
+        <v>464.4677734375</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="n">
-        <v>483.7169799804688</v>
+        <v>461.8221435546875</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="n">
-        <v>485.1485290527344</v>
+        <v>463.5881958007812</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="n">
-        <v>485.1485290527344</v>
+        <v>463.5881958007812</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="n">
-        <v>394.9154052734375</v>
+        <v>362.8454895019531</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="n">
-        <v>395.960693359375</v>
+        <v>363.8987121582031</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="n">
-        <v>395.960693359375</v>
+        <v>363.8987121582031</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="n">
-        <v>393.8665771484375</v>
+        <v>361.7913208007812</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="n">
-        <v>390.699951171875</v>
+        <v>358.6232299804688</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="n">
-        <v>391.7589111328125</v>
+        <v>359.6802062988281</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="n">
-        <v>377.5381469726562</v>
+        <v>397.6478271484375</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="n">
-        <v>377.5381469726562</v>
+        <v>397.6478271484375</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="n">
-        <v>384.6643676757812</v>
+        <v>404.9840087890625</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="n">
-        <v>387.3677978515625</v>
+        <v>407.7377624511719</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="n">
-        <v>397.9639892578125</v>
+        <v>418.3831176757812</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="n">
-        <v>403.1334228515625</v>
+        <v>423.4951477050781</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="n">
-        <v>407.5875244140625</v>
+        <v>427.8597412109375</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="n">
-        <v>415.0752563476562</v>
+        <v>435.1180725097656</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="n">
-        <v>414.4581909179688</v>
+        <v>434.5237731933594</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="n">
-        <v>421.1744995117188</v>
+        <v>440.962646484375</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="n">
-        <v>505.841064453125</v>
+        <v>518.7154541015625</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="n">
-        <v>522.2251586914062</v>
+        <v>533.79833984375</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="n">
-        <v>536.592529296875</v>
+        <v>547.2657470703125</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="n">
-        <v>552.234130859375</v>
+        <v>562.2806396484375</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="n">
-        <v>582.3552856445312</v>
+        <v>592.5745239257812</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="n">
-        <v>598.03466796875</v>
+        <v>609.22509765625</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="n">
-        <v>604.1761474609375</v>
+        <v>615.9345703125</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="n">
-        <v>616.6138916015625</v>
+        <v>629.8702392578125</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="n">
-        <v>410.3703308105469</v>
+        <v>385.3359985351562</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="n">
-        <v>410.4866027832031</v>
+        <v>385.5150146484375</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="n">
-        <v>418.476806640625</v>
+        <v>397.83056640625</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="n">
-        <v>459.7921142578125</v>
+        <v>461.14404296875</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="n">
-        <v>480.3984069824219</v>
+        <v>491.8608703613281</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="n">
-        <v>532.2803955078125</v>
+        <v>561.8837890625</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="n">
-        <v>579.9939575195312</v>
+        <v>605.4854736328125</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="n">
-        <v>640.6995849609375</v>
+        <v>591.746826171875</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="n">
-        <v>387.1737670898438</v>
+        <v>356.7589721679688</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="n">
-        <v>391.5955810546875</v>
+        <v>363.6875610351562</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="n">
-        <v>393.5429077148438</v>
+        <v>366.7096557617188</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="n">
-        <v>393.5429077148438</v>
+        <v>366.7096557617188</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="n">
-        <v>414.2508544921875</v>
+        <v>397.6951599121094</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="n">
-        <v>408.2672729492188</v>
+        <v>388.9619750976562</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="n">
-        <v>410.5818176269531</v>
+        <v>392.3616943359375</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="n">
-        <v>437.938720703125</v>
+        <v>430.44482421875</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="n">
-        <v>481.4811706542969</v>
+        <v>482.9228820800781</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="n">
-        <v>514.39990234375</v>
+        <v>516.2332763671875</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="n">
-        <v>499.041015625</v>
+        <v>501.3352661132812</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="n">
-        <v>515.63134765625</v>
+        <v>517.3812255859375</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="n">
-        <v>565.381591796875</v>
+        <v>558.65283203125</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="n">
-        <v>593.413330078125</v>
+        <v>578.2327270507812</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="n">
-        <v>639.1787109375</v>
+        <v>606.0452880859375</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="n">
-        <v>642.79833984375</v>
+        <v>608.062255859375</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="n">
-        <v>684.625244140625</v>
+        <v>630.082763671875</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="n">
-        <v>409.93603515625</v>
+        <v>412.3651123046875</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="n">
-        <v>366.0395202636719</v>
+        <v>354.3712463378906</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="n">
-        <v>304.0734252929688</v>
+        <v>284.9418029785156</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="n">
-        <v>268.4015197753906</v>
+        <v>250.4867706298828</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="n">
-        <v>409.93603515625</v>
+        <v>412.3651123046875</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="n">
-        <v>366.0395202636719</v>
+        <v>354.3712463378906</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="n">
-        <v>304.0734252929688</v>
+        <v>284.9418029785156</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="n">
-        <v>268.4015197753906</v>
+        <v>250.4867706298828</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="n">
-        <v>409.93603515625</v>
+        <v>412.3651123046875</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="n">
-        <v>366.0395202636719</v>
+        <v>354.3712463378906</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="n">
-        <v>304.0734252929688</v>
+        <v>284.9418029785156</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="n">
-        <v>268.4015197753906</v>
+        <v>250.4867706298828</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="n">
-        <v>406.5067138671875</v>
+        <v>407.5519104003906</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="n">
-        <v>358.0543518066406</v>
+        <v>344.6422119140625</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="n">
-        <v>311.7250061035156</v>
+        <v>292.8039245605469</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="n">
-        <v>271.103515625</v>
+        <v>252.9831848144531</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="n">
-        <v>406.5067138671875</v>
+        <v>407.5519104003906</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="n">
-        <v>358.0543518066406</v>
+        <v>344.6422119140625</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="n">
-        <v>311.7250061035156</v>
+        <v>292.8039245605469</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="n">
-        <v>271.103515625</v>
+        <v>252.9831848144531</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="n">
-        <v>406.5067138671875</v>
+        <v>407.5519104003906</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="n">
-        <v>358.0543518066406</v>
+        <v>344.6422119140625</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="n">
-        <v>311.7250061035156</v>
+        <v>292.8039245605469</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="n">
-        <v>271.103515625</v>
+        <v>252.9831848144531</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="n">
-        <v>406.7244873046875</v>
+        <v>407.8561401367188</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="n">
-        <v>366.2593383789062</v>
+        <v>354.6423645019531</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="n">
-        <v>300.1179809570312</v>
+        <v>280.9478759765625</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="n">
-        <v>272.1108703613281</v>
+        <v>253.9181823730469</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="n">
-        <v>406.7244873046875</v>
+        <v>407.8561401367188</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="n">
-        <v>366.2593383789062</v>
+        <v>354.6423645019531</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="n">
-        <v>300.1179809570312</v>
+        <v>280.9478759765625</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="n">
-        <v>272.1108703613281</v>
+        <v>253.9181823730469</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="n">
-        <v>406.7244873046875</v>
+        <v>407.8561401367188</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="n">
-        <v>366.2593383789062</v>
+        <v>354.6423645019531</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="n">
-        <v>300.1179809570312</v>
+        <v>280.9478759765625</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="n">
-        <v>272.1108703613281</v>
+        <v>253.9181823730469</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="n">
-        <v>411.4204711914062</v>
+        <v>414.4639587402344</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="n">
-        <v>356.3554077148438</v>
+        <v>342.6036376953125</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="n">
-        <v>307.3074340820312</v>
+        <v>288.2424926757812</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="n">
-        <v>268.1163940429688</v>
+        <v>250.2243194580078</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="n">
-        <v>411.4204711914062</v>
+        <v>414.4639587402344</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="n">
-        <v>356.3554077148438</v>
+        <v>342.6036376953125</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="n">
-        <v>307.3074340820312</v>
+        <v>288.2424926757812</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="n">
-        <v>268.1163940429688</v>
+        <v>250.2243194580078</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="n">
-        <v>411.4204711914062</v>
+        <v>414.4639587402344</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="n">
-        <v>356.3554077148438</v>
+        <v>342.6036376953125</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="n">
-        <v>307.3074340820312</v>
+        <v>288.2424926757812</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="n">
-        <v>268.1163940429688</v>
+        <v>250.2243194580078</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="n">
-        <v>404.5763549804688</v>
+        <v>404.8642578125</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="n">
-        <v>361.3937377929688</v>
+        <v>348.680908203125</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="n">
-        <v>303.7904663085938</v>
+        <v>284.6545104980469</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="n">
-        <v>268.0903625488281</v>
+        <v>250.2002716064453</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="n">
-        <v>404.5763549804688</v>
+        <v>404.8642578125</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="n">
-        <v>361.3937377929688</v>
+        <v>348.680908203125</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="n">
-        <v>303.7904663085938</v>
+        <v>284.6545104980469</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="n">
-        <v>268.0903625488281</v>
+        <v>250.2002716064453</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="n">
-        <v>404.5763549804688</v>
+        <v>404.8642578125</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="n">
-        <v>361.3937377929688</v>
+        <v>348.680908203125</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="n">
-        <v>303.7904663085938</v>
+        <v>284.6545104980469</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="n">
-        <v>268.0903625488281</v>
+        <v>250.2002716064453</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="n">
-        <v>269.96630859375</v>
+        <v>273.7371826171875</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="n">
-        <v>269.96630859375</v>
+        <v>273.7371826171875</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="n">
-        <v>269.96630859375</v>
+        <v>273.7371826171875</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="n">
-        <v>313.9517822265625</v>
+        <v>315.8278503417969</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="n">
-        <v>313.9517822265625</v>
+        <v>315.8278503417969</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="n">
-        <v>313.9517822265625</v>
+        <v>315.8278503417969</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="n">
-        <v>362.4944458007812</v>
+        <v>365.9838256835938</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="n">
-        <v>362.4944458007812</v>
+        <v>365.9838256835938</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="n">
-        <v>362.4944458007812</v>
+        <v>365.9838256835938</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="n">
-        <v>412.04736328125</v>
+        <v>422.8059387207031</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="n">
-        <v>412.04736328125</v>
+        <v>422.8059387207031</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="n">
-        <v>412.04736328125</v>
+        <v>422.8059387207031</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="n">
-        <v>270.8391723632812</v>
+        <v>266.9905700683594</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="n">
-        <v>270.7913818359375</v>
+        <v>266.9372253417969</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="n">
-        <v>280.0997924804688</v>
+        <v>277.0931091308594</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="n">
-        <v>275.3710021972656</v>
+        <v>271.9888000488281</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="n">
-        <v>303.631591796875</v>
+        <v>300.9656982421875</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="n">
-        <v>317.4263916015625</v>
+        <v>313.93603515625</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="n">
-        <v>312.1578063964844</v>
+        <v>309.0611572265625</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="n">
-        <v>367.7607421875</v>
+        <v>356.8325500488281</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="n">
-        <v>280.6619262695312</v>
+        <v>277.692626953125</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="n">
-        <v>368.5614013671875</v>
+        <v>357.4757690429688</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="n">
-        <v>409.1094360351562</v>
+        <v>389.2385559082031</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="n">
-        <v>445.0269775390625</v>
+        <v>416.9833374023438</v>
       </c>
     </row>
   </sheetData>

--- a/ANN Tmin/Tmin_output.xlsx
+++ b/ANN Tmin/Tmin_output.xlsx
@@ -74,7 +74,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -1530,7 +1529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A759"/>
+  <dimension ref="A1:A380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A910"/>
@@ -1545,3792 +1544,1897 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="n">
-        <v>323.1791381835938</v>
+        <v>432.7928161621094</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="n">
-        <v>468.4547119140625</v>
+        <v>509.2427978515625</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="n">
-        <v>534.2982177734375</v>
+        <v>585.99169921875</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="n">
-        <v>622.8117065429688</v>
+        <v>661.0185546875</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="n">
-        <v>709.8128662109375</v>
+        <v>735.5712280273438</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="n">
-        <v>323.1791381835938</v>
+        <v>432.7928161621094</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="n">
-        <v>371.4327697753906</v>
+        <v>411.59375</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="n">
-        <v>333.5228881835938</v>
+        <v>451.4301147460938</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="n">
-        <v>521.012939453125</v>
+        <v>566.181640625</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="n">
-        <v>333.5228881835938</v>
+        <v>451.4301147460938</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="n">
-        <v>570.542724609375</v>
+        <v>542.4794921875</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="n">
-        <v>337.504638671875</v>
+        <v>448.08251953125</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="n">
-        <v>572.2435302734375</v>
+        <v>538.8937377929688</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="n">
-        <v>337.504638671875</v>
+        <v>448.08251953125</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="n">
-        <v>522.0891723632812</v>
+        <v>558.9837646484375</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="n">
-        <v>431.6917419433594</v>
+        <v>467.5008544921875</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="n">
-        <v>574.5491943359375</v>
+        <v>559.4224853515625</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="n">
-        <v>431.6917419433594</v>
+        <v>467.5008544921875</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="n">
-        <v>639.827880859375</v>
+        <v>611.481201171875</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="n">
-        <v>338.0960998535156</v>
+        <v>445.9420166015625</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="n">
-        <v>388.458251953125</v>
+        <v>463.3391723632812</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="n">
-        <v>412.7713623046875</v>
+        <v>471.9230041503906</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="n">
-        <v>413.419189453125</v>
+        <v>472.154052734375</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="n">
-        <v>436.3757934570312</v>
+        <v>480.4393615722656</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="n">
-        <v>466.9869079589844</v>
+        <v>491.8473815917969</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="n">
-        <v>468.171142578125</v>
+        <v>492.2968139648438</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="n">
-        <v>474.6918334960938</v>
+        <v>494.8024597167969</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="n">
-        <v>520.920166015625</v>
+        <v>513.4017333984375</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="n">
-        <v>527.174560546875</v>
+        <v>516.0638427734375</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="n">
-        <v>534.8348388671875</v>
+        <v>519.382568359375</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="n">
-        <v>541.352783203125</v>
+        <v>522.26611328125</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="n">
-        <v>574.8370361328125</v>
+        <v>537.9852294921875</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="n">
-        <v>579.1402587890625</v>
+        <v>540.1384887695312</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="n">
-        <v>582.535888671875</v>
+        <v>541.8658447265625</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="n">
-        <v>594.005615234375</v>
+        <v>547.8829956054688</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="n">
-        <v>620.9345092773438</v>
+        <v>563.3775634765625</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="n">
-        <v>341.2975463867188</v>
+        <v>446.9113464355469</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="n">
-        <v>436.2686462402344</v>
+        <v>480.0878601074219</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="n">
-        <v>487.2065734863281</v>
+        <v>515.8382568359375</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="n">
-        <v>524.718505859375</v>
+        <v>557.60205078125</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="n">
-        <v>561.318115234375</v>
+        <v>593.8684692382812</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="n">
-        <v>608.8597412109375</v>
+        <v>633.982666015625</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="n">
-        <v>650.681396484375</v>
+        <v>667.9699096679688</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="n">
-        <v>335.5285949707031</v>
+        <v>304.2008666992188</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="n">
-        <v>326.0122680664062</v>
+        <v>305.6544189453125</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="n">
-        <v>318.0973510742188</v>
+        <v>306.3777160644531</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="n">
-        <v>310.5494995117188</v>
+        <v>306.5732116699219</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="n">
-        <v>303.4271850585938</v>
+        <v>306.2244873046875</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="n">
-        <v>295.42041015625</v>
+        <v>305.0679931640625</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="n">
-        <v>289.7338562011719</v>
+        <v>303.6348876953125</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="n">
-        <v>283.5797119140625</v>
+        <v>301.3612670898438</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="n">
-        <v>277.8841247558594</v>
+        <v>298.4137573242188</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="n">
-        <v>272.4178466796875</v>
+        <v>294.6079711914062</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="n">
-        <v>267.6069641113281</v>
+        <v>290.2513732910156</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="n">
-        <v>262.9853515625</v>
+        <v>284.960693359375</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="n">
-        <v>260.1575012207031</v>
+        <v>281.1016235351562</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="n">
-        <v>254.8030090332031</v>
+        <v>272.4007568359375</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="n">
-        <v>251.5132598876953</v>
+        <v>266.2258605957031</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="n">
-        <v>247.4564361572266</v>
+        <v>258.0540771484375</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="n">
-        <v>244.4705810546875</v>
+        <v>251.9250793457031</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="n">
-        <v>238.8092498779297</v>
+        <v>240.7594604492188</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="n">
-        <v>233.5418243408203</v>
+        <v>231.4027404785156</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="n">
-        <v>228.0930633544922</v>
+        <v>222.9066467285156</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="n">
-        <v>221.7177124023438</v>
+        <v>214.5652923583984</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="n">
-        <v>227.5128936767578</v>
+        <v>222.0718688964844</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="n">
-        <v>233.7670745849609</v>
+        <v>231.7796173095703</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="n">
-        <v>239.5649566650391</v>
+        <v>242.1919860839844</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="n">
-        <v>244.6217651367188</v>
+        <v>252.2339782714844</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="n">
-        <v>248.4172210693359</v>
+        <v>260.0216064453125</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="n">
-        <v>252.0191650390625</v>
+        <v>267.2092590332031</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="n">
-        <v>255.4180908203125</v>
+        <v>273.4910583496094</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="n">
-        <v>259.7919006347656</v>
+        <v>280.5655822753906</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="n">
-        <v>263.6837463378906</v>
+        <v>285.8381958007812</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="n">
-        <v>268.0579833984375</v>
+        <v>290.7062377929688</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="n">
-        <v>272.794921875</v>
+        <v>294.9063110351562</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="n">
-        <v>277.4505615234375</v>
+        <v>298.1499938964844</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="n">
-        <v>283.76904296875</v>
+        <v>301.4441223144531</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="n">
-        <v>290.3720703125</v>
+        <v>303.8251037597656</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="n">
-        <v>296.8905639648438</v>
+        <v>305.349853515625</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="n">
-        <v>303.1971740722656</v>
+        <v>306.2034606933594</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="n">
-        <v>310.1983032226562</v>
+        <v>306.5689697265625</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="n">
-        <v>319.3814086914062</v>
+        <v>306.2937927246094</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="n">
-        <v>327.57080078125</v>
+        <v>305.4571533203125</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="n">
-        <v>336.1173095703125</v>
+        <v>304.0925903320312</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="n">
-        <v>487.9690551757812</v>
+        <v>408.4671325683594</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="n">
-        <v>478.9374084472656</v>
+        <v>415.223388671875</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="n">
-        <v>470.1631774902344</v>
+        <v>418.9617614746094</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="n">
-        <v>458.1705322265625</v>
+        <v>418.5006713867188</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="n">
-        <v>449.8189697265625</v>
+        <v>413.6450500488281</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="n">
-        <v>438.3713684082031</v>
+        <v>400.3740234375</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="n">
-        <v>430.9755859375</v>
+        <v>388.0902099609375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="n">
-        <v>427.1434936523438</v>
+        <v>380.8495483398438</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="n">
-        <v>422.5881958007812</v>
+        <v>371.7066040039062</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="n">
-        <v>418.799072265625</v>
+        <v>363.8226318359375</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="n">
-        <v>413.9091186523438</v>
+        <v>353.5057067871094</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="n">
-        <v>409.3450317382812</v>
+        <v>343.9591979980469</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="n">
-        <v>406.6393432617188</v>
+        <v>338.4822387695312</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="n">
-        <v>404.1777954101562</v>
+        <v>334.1261596679688</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="n">
-        <v>488.066162109375</v>
+        <v>408.380615234375</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="n">
-        <v>470.0395202636719</v>
+        <v>418.991943359375</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="n">
-        <v>449.9451904296875</v>
+        <v>413.7487182617188</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="n">
-        <v>431.1552124023438</v>
+        <v>388.41650390625</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="n">
-        <v>439.0797729492188</v>
+        <v>401.4107666015625</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="n">
-        <v>419.2652282714844</v>
+        <v>364.8010864257812</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="n">
-        <v>326.9464416503906</v>
+        <v>369.117431640625</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="n">
-        <v>316.0542907714844</v>
+        <v>365.6620178222656</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="n">
-        <v>305.7434997558594</v>
+        <v>361.8427734375</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="n">
-        <v>296.4827880859375</v>
+        <v>357.8224487304688</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="n">
-        <v>287.4881591796875</v>
+        <v>353.2062377929688</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="n">
-        <v>278.9048156738281</v>
+        <v>347.900390625</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="n">
-        <v>272.508544921875</v>
+        <v>343.1401977539062</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="n">
-        <v>266.1908569335938</v>
+        <v>337.4550170898438</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="n">
-        <v>259.4978332519531</v>
+        <v>329.7780456542969</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="n">
-        <v>255.0105743408203</v>
+        <v>323.0593566894531</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="n">
-        <v>251.1459045410156</v>
+        <v>315.5122680664062</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="n">
-        <v>247.9147644042969</v>
+        <v>307.0299987792969</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="n">
-        <v>245.7621917724609</v>
+        <v>299.581787109375</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="n">
-        <v>243.5596466064453</v>
+        <v>290.001708984375</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="n">
-        <v>241.4709777832031</v>
+        <v>279.8106994628906</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="n">
-        <v>239.1473541259766</v>
+        <v>269.506103515625</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="n">
-        <v>236.2984771728516</v>
+        <v>259.6502075195312</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="n">
-        <v>224.9146881103516</v>
+        <v>236.3778076171875</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="n">
-        <v>214.8598937988281</v>
+        <v>223.940185546875</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="n">
-        <v>199.0186157226562</v>
+        <v>212.3520965576172</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="n">
-        <v>215.0237426757812</v>
+        <v>224.1129455566406</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="n">
-        <v>226.2730560302734</v>
+        <v>238.4388580322266</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="n">
-        <v>232.996826171875</v>
+        <v>251.0351409912109</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="n">
-        <v>236.7587585449219</v>
+        <v>261.0601806640625</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="n">
-        <v>239.8757781982422</v>
+        <v>272.5160522460938</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="n">
-        <v>241.7446441650391</v>
+        <v>281.13720703125</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="n">
-        <v>243.8689575195312</v>
+        <v>291.4591064453125</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="n">
-        <v>246.0690612792969</v>
+        <v>300.7559204101562</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="n">
-        <v>247.9885864257812</v>
+        <v>307.2550048828125</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="n">
-        <v>251.1621398925781</v>
+        <v>315.5487670898438</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="n">
-        <v>255.1384887695312</v>
+        <v>323.2761840820312</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="n">
-        <v>260.4775695800781</v>
+        <v>331.0464477539062</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="n">
-        <v>266.3677062988281</v>
+        <v>337.6311645507812</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="n">
-        <v>272.2523193359375</v>
+        <v>342.93115234375</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="n">
-        <v>279.1748657226562</v>
+        <v>348.0841674804688</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="n">
-        <v>287.2061767578125</v>
+        <v>353.0475463867188</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="n">
-        <v>296.8145751953125</v>
+        <v>357.9781494140625</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="n">
-        <v>306.780517578125</v>
+        <v>362.2552490234375</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="n">
-        <v>317.8873901367188</v>
+        <v>366.2811279296875</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="n">
-        <v>328.6290588378906</v>
+        <v>369.6067810058594</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="n">
-        <v>215.4414520263672</v>
+        <v>224.5563812255859</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="n">
-        <v>225.1607513427734</v>
+        <v>236.7421569824219</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="n">
-        <v>232.0462036132812</v>
+        <v>248.932861328125</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="n">
-        <v>236.7454528808594</v>
+        <v>261.0180969238281</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="n">
-        <v>239.5475006103516</v>
+        <v>271.1329956054688</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="n">
-        <v>241.8342590332031</v>
+        <v>281.5745849609375</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="n">
-        <v>243.6136932373047</v>
+        <v>290.2581481933594</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="n">
-        <v>245.6800231933594</v>
+        <v>299.2610778808594</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="n">
-        <v>248.4969635009766</v>
+        <v>308.7625122070312</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="n">
-        <v>251.3424530029297</v>
+        <v>315.9519348144531</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="n">
-        <v>255.5316162109375</v>
+        <v>323.9316101074219</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="n">
-        <v>260.2528991699219</v>
+        <v>330.7608642578125</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="n">
-        <v>265.865966796875</v>
+        <v>337.1280517578125</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="n">
-        <v>272.0470886230469</v>
+        <v>342.7623901367188</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="n">
-        <v>279.97412109375</v>
+        <v>348.6209716796875</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="n">
-        <v>287.3665466308594</v>
+        <v>353.1380615234375</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="n">
-        <v>297.8161926269531</v>
+        <v>358.442138671875</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="n">
-        <v>306.1668701171875</v>
+        <v>362.0121459960938</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="n">
-        <v>318.1236877441406</v>
+        <v>366.3596801757812</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="n">
-        <v>328.4564514160156</v>
+        <v>369.5570678710938</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="n">
-        <v>355.2013549804688</v>
+        <v>425.2904052734375</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="n">
-        <v>593.3363037109375</v>
+        <v>660.7640380859375</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="n">
-        <v>389.2411193847656</v>
+        <v>409.83544921875</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="n">
-        <v>391.4415283203125</v>
+        <v>410.6211853027344</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="n">
-        <v>395.8232421875</v>
+        <v>412.1903076171875</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="n">
-        <v>398.004638671875</v>
+        <v>412.9737548828125</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="n">
-        <v>384.8216552734375</v>
+        <v>408.2616577148438</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="n">
-        <v>389.2411193847656</v>
+        <v>409.83544921875</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="n">
-        <v>384.8216552734375</v>
+        <v>408.2616577148438</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="n">
-        <v>384.8216552734375</v>
+        <v>408.2616577148438</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="n">
-        <v>384.8216552734375</v>
+        <v>408.2616577148438</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="n">
-        <v>384.8216552734375</v>
+        <v>408.2616577148438</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="n">
-        <v>417.3531494140625</v>
+        <v>419.9946899414062</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="n">
-        <v>417.3531494140625</v>
+        <v>419.9946899414062</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="n">
-        <v>417.3531494140625</v>
+        <v>419.9946899414062</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="n">
-        <v>446.36376953125</v>
+        <v>430.8171997070312</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="n">
-        <v>448.3819274902344</v>
+        <v>431.5859985351562</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="n">
-        <v>448.3819274902344</v>
+        <v>431.5859985351562</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="n">
-        <v>448.3819274902344</v>
+        <v>431.5859985351562</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="n">
-        <v>488.9339599609375</v>
+        <v>447.6029357910156</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="n">
-        <v>487.0860900878906</v>
+        <v>446.845703125</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="n">
-        <v>488.9339599609375</v>
+        <v>447.6029357910156</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="n">
-        <v>488.9339599609375</v>
+        <v>447.6029357910156</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="n">
-        <v>475.8185729980469</v>
+        <v>442.2906799316406</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="n">
-        <v>475.8185729980469</v>
+        <v>442.2906799316406</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="n">
-        <v>477.7176513671875</v>
+        <v>443.0512084960938</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="n">
-        <v>473.9112854003906</v>
+        <v>441.5296630859375</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="n">
-        <v>605.872802734375</v>
+        <v>506.1429443359375</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="n">
-        <v>606.621826171875</v>
+        <v>506.6371765136719</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="n">
-        <v>605.119140625</v>
+        <v>505.6483764648438</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="n">
-        <v>357.3580322265625</v>
+        <v>383.2008056640625</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="n">
-        <v>441.7652893066406</v>
+        <v>412.7861022949219</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="n">
-        <v>441.7652893066406</v>
+        <v>412.7861022949219</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="n">
-        <v>441.7652893066406</v>
+        <v>412.7861022949219</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="n">
-        <v>442.9725036621094</v>
+        <v>413.2476196289062</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="n">
-        <v>544.094970703125</v>
+        <v>459.8875732421875</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="n">
-        <v>544.8370971679688</v>
+        <v>460.3226318359375</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="n">
-        <v>544.094970703125</v>
+        <v>459.8875732421875</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="n">
-        <v>627.4931640625</v>
+        <v>546.1260986328125</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="n">
-        <v>627.628173828125</v>
+        <v>546.503662109375</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="n">
-        <v>627.3565673828125</v>
+        <v>545.7483520507812</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="n">
-        <v>632.934814453125</v>
+        <v>619.5798950195312</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="n">
-        <v>632.934814453125</v>
+        <v>619.5798950195312</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="n">
-        <v>623.9320068359375</v>
+        <v>680.4661254882812</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="n">
-        <v>623.8629760742188</v>
+        <v>680.9949951171875</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="n">
-        <v>665.1856689453125</v>
+        <v>739.5091552734375</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="n">
-        <v>657.9296264648438</v>
+        <v>698.2725219726562</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="n">
-        <v>657.826416015625</v>
+        <v>696.63818359375</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="n">
-        <v>657.9187622070312</v>
+        <v>698.1094970703125</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="n">
-        <v>658.3795166015625</v>
+        <v>648.47998046875</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="n">
-        <v>658.3795166015625</v>
+        <v>648.47998046875</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="n">
-        <v>658.328125</v>
+        <v>649.441162109375</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="n">
-        <v>658.33837890625</v>
+        <v>649.2491455078125</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="n">
-        <v>659.9572143554688</v>
+        <v>591.5354614257812</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="n">
-        <v>659.9572143554688</v>
+        <v>591.5354614257812</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="n">
-        <v>659.9759521484375</v>
+        <v>591.9893798828125</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="n">
-        <v>659.9572143554688</v>
+        <v>591.5354614257812</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="n">
-        <v>659.9276123046875</v>
+        <v>590.853515625</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="n">
-        <v>646.6605834960938</v>
+        <v>531.6578369140625</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="n">
-        <v>645.9412231445312</v>
+        <v>530.1392822265625</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="n">
-        <v>646.01416015625</v>
+        <v>530.2913818359375</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="n">
-        <v>642.701171875</v>
+        <v>523.8624267578125</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="n">
-        <v>642.44482421875</v>
+        <v>523.3997802734375</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="n">
-        <v>642.2725830078125</v>
+        <v>523.0911865234375</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="n">
-        <v>561.7618408203125</v>
+        <v>450.0463256835938</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="n">
-        <v>562.207275390625</v>
+        <v>450.2996520996094</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="n">
-        <v>562.207275390625</v>
+        <v>450.2996520996094</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="n">
-        <v>562.6510009765625</v>
+        <v>450.5529174804688</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="n">
-        <v>561.7618408203125</v>
+        <v>450.0463256835938</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="n">
-        <v>548.66650390625</v>
+        <v>442.9119262695312</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="n">
-        <v>548.66650390625</v>
+        <v>442.9119262695312</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="n">
-        <v>550.6123046875</v>
+        <v>443.9358520507812</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="n">
-        <v>550.6123046875</v>
+        <v>443.9358520507812</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="n">
-        <v>563.9736328125</v>
+        <v>451.3120727539062</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="n">
-        <v>550.6123046875</v>
+        <v>443.9358520507812</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="n">
-        <v>445.4907531738281</v>
+        <v>399.5961303710938</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="n">
-        <v>443.9394836425781</v>
+        <v>399.0521545410156</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="n">
-        <v>453.896240234375</v>
+        <v>402.5816650390625</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="n">
-        <v>455.4014282226562</v>
+        <v>403.123046875</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="n">
-        <v>453.1409301757812</v>
+        <v>402.310546875</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="n">
-        <v>454.6497192382812</v>
+        <v>402.8524169921875</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="n">
-        <v>454.6497192382812</v>
+        <v>402.8524169921875</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="n">
-        <v>367.9812622070312</v>
+        <v>374.4662780761719</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="n">
-        <v>368.9061279296875</v>
+        <v>374.7466430664062</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="n">
-        <v>368.9061279296875</v>
+        <v>374.7466430664062</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="n">
-        <v>367.0548400878906</v>
+        <v>374.1857299804688</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="n">
-        <v>364.2672119140625</v>
+        <v>373.3435363769531</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="n">
-        <v>365.1978759765625</v>
+        <v>373.6243896484375</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="n">
-        <v>385.6277465820312</v>
+        <v>408.5482177734375</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="n">
-        <v>385.6277465820312</v>
+        <v>408.5482177734375</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="n">
-        <v>396.4944458007812</v>
+        <v>410.88671875</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="n">
-        <v>400.5782775878906</v>
+        <v>411.7869873046875</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="n">
-        <v>416.3329467773438</v>
+        <v>415.3893737792969</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="n">
-        <v>423.8507080078125</v>
+        <v>417.1911010742188</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="n">
-        <v>430.2268371582031</v>
+        <v>418.7679443359375</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="n">
-        <v>440.7137451171875</v>
+        <v>421.4718627929688</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="n">
-        <v>439.8612670898438</v>
+        <v>421.2464599609375</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="n">
-        <v>449.0218811035156</v>
+        <v>423.7256774902344</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="n">
-        <v>536.5184326171875</v>
+        <v>461.2163696289062</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="n">
-        <v>547.1505126953125</v>
+        <v>470.2680969238281</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="n">
-        <v>555.156494140625</v>
+        <v>478.8719177246094</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="n">
-        <v>562.8980712890625</v>
+        <v>489.0655822753906</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="n">
-        <v>577.31396484375</v>
+        <v>511.7300720214844</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="n">
-        <v>586.234130859375</v>
+        <v>525.5579223632812</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="n">
-        <v>590.3115234375</v>
+        <v>531.4512329101562</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="n">
-        <v>599.9905395507812</v>
+        <v>544.3677978515625</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="n">
-        <v>398.4430236816406</v>
+        <v>534.796630859375</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="n">
-        <v>398.6094360351562</v>
+        <v>534.831787109375</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="n">
-        <v>409.9268188476562</v>
+        <v>537.2476806640625</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="n">
-        <v>464.9464416503906</v>
+        <v>549.7448120117188</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="n">
-        <v>490.1838073730469</v>
+        <v>556.0272216796875</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="n">
-        <v>545.6875</v>
+        <v>572.287109375</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="n">
-        <v>581.699462890625</v>
+        <v>588.478515625</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="n">
-        <v>593.2066650390625</v>
+        <v>614.2178955078125</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="n">
-        <v>360.9726867675781</v>
+        <v>372.6075744628906</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="n">
-        <v>364.698486328125</v>
+        <v>374.0906066894531</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="n">
-        <v>366.417236328125</v>
+        <v>374.7498474121094</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="n">
-        <v>366.417236328125</v>
+        <v>374.7498474121094</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="n">
-        <v>387.4262390136719</v>
+        <v>382.0040283203125</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="n">
-        <v>380.8725891113281</v>
+        <v>379.860107421875</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="n">
-        <v>383.3645324707031</v>
+        <v>380.6846618652344</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="n">
-        <v>416.3997802734375</v>
+        <v>390.9132690429688</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="n">
-        <v>475.2064819335938</v>
+        <v>409.4128723144531</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="n">
-        <v>515.95849609375</v>
+        <v>425.7852783203125</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="n">
-        <v>497.8417053222656</v>
+        <v>417.8450927734375</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="n">
-        <v>517.3262939453125</v>
+        <v>426.4472045898438</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="n">
-        <v>559.9117431640625</v>
+        <v>457.0791015625</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="n">
-        <v>573.7022094726562</v>
+        <v>478.784423828125</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="n">
-        <v>594.99462890625</v>
+        <v>525.8195190429688</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="n">
-        <v>597.6263427734375</v>
+        <v>530.45166015625</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="n">
-        <v>658.06494140625</v>
+        <v>603.6069946289062</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="n">
-        <v>384.3202209472656</v>
+        <v>518.545654296875</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="n">
-        <v>341.0123901367188</v>
+        <v>535.0980224609375</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="n">
-        <v>287.7315063476562</v>
+        <v>543.823486328125</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="n">
-        <v>265.5567626953125</v>
+        <v>540.437255859375</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="n">
-        <v>384.3202209472656</v>
+        <v>580.04541015625</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="n">
-        <v>341.0123901367188</v>
+        <v>521.518798828125</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="n">
-        <v>287.7315063476562</v>
+        <v>556.3799438476562</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="n">
-        <v>265.5567626953125</v>
+        <v>556.3799438476562</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="n">
-        <v>384.3202209472656</v>
+        <v>590.1033935546875</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="n">
-        <v>341.0123901367188</v>
+        <v>590.1033935546875</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="n">
-        <v>287.7315063476562</v>
+        <v>590.1033935546875</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="n">
-        <v>265.5567626953125</v>
+        <v>632.8948974609375</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="n">
-        <v>380.4415283203125</v>
+        <v>581.4443359375</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="n">
-        <v>333.9420471191406</v>
+        <v>549.4873657226562</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="n">
-        <v>293.9209289550781</v>
+        <v>525.7587280273438</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="n">
-        <v>266.6439208984375</v>
+        <v>622.765625</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="n">
-        <v>380.4415283203125</v>
+        <v>587.7732543945312</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="n">
-        <v>333.9420471191406</v>
+        <v>542.34619140625</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="n">
-        <v>293.9209289550781</v>
+        <v>526.306640625</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="n">
-        <v>266.6439208984375</v>
+        <v>622.765625</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="n">
-        <v>380.4415283203125</v>
+        <v>587.7732543945312</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="n">
-        <v>333.9420471191406</v>
+        <v>542.34619140625</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="n">
-        <v>293.9209289550781</v>
+        <v>526.306640625</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="n">
-        <v>266.6439208984375</v>
+        <v>622.765625</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="n">
-        <v>380.684326171875</v>
+        <v>587.7732543945312</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="n">
-        <v>341.208251953125</v>
+        <v>542.34619140625</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="n">
-        <v>284.654541015625</v>
+        <v>526.306640625</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="n">
-        <v>267.0815734863281</v>
+        <v>627.305419921875</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="n">
-        <v>380.684326171875</v>
+        <v>580.1618041992188</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="n">
-        <v>341.208251953125</v>
+        <v>546.73291015625</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="n">
-        <v>284.654541015625</v>
+        <v>524.145263671875</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="n">
-        <v>267.0815734863281</v>
+        <v>627.305419921875</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="n">
-        <v>380.684326171875</v>
+        <v>580.1618041992188</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="n">
-        <v>341.208251953125</v>
+        <v>546.73291015625</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="n">
-        <v>284.654541015625</v>
+        <v>524.145263671875</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="n">
-        <v>267.0815734863281</v>
+        <v>627.305419921875</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="n">
-        <v>386.0384521484375</v>
+        <v>625.85791015625</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="n">
-        <v>332.4473266601562</v>
+        <v>587.600830078125</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="n">
-        <v>290.313720703125</v>
+        <v>544.7451171875</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="n">
-        <v>265.4497985839844</v>
+        <v>524.2984008789062</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="n">
-        <v>386.0384521484375</v>
+        <v>625.85791015625</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="n">
-        <v>332.4473266601562</v>
+        <v>587.600830078125</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="n">
-        <v>290.313720703125</v>
+        <v>544.7451171875</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="n">
-        <v>265.4497985839844</v>
+        <v>524.2984008789062</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="n">
-        <v>386.0384521484375</v>
+        <v>625.85791015625</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="n">
-        <v>332.4473266601562</v>
+        <v>587.600830078125</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="n">
-        <v>290.313720703125</v>
+        <v>544.7451171875</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="n">
-        <v>265.4497985839844</v>
+        <v>524.2984008789062</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="n">
-        <v>378.3106994628906</v>
+        <v>622.5579223632812</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="n">
-        <v>336.8886108398438</v>
+        <v>581.4443359375</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="n">
-        <v>287.5082397460938</v>
+        <v>549.4873657226562</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="n">
-        <v>265.4398803710938</v>
+        <v>525.7587280273438</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="n">
-        <v>378.3106994628906</v>
+        <v>622.5579223632812</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="n">
-        <v>336.8886108398438</v>
+        <v>581.4443359375</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="n">
-        <v>287.5082397460938</v>
+        <v>549.4873657226562</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="n">
-        <v>265.4398803710938</v>
+        <v>525.7587280273438</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="n">
-        <v>378.3106994628906</v>
+        <v>622.5579223632812</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="n">
-        <v>336.8886108398438</v>
+        <v>580.1618041992188</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="n">
-        <v>287.5082397460938</v>
+        <v>546.73291015625</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="n">
-        <v>265.4398803710938</v>
+        <v>524.145263671875</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="n">
-        <v>262.4307250976562</v>
+        <v>620.7266845703125</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="n">
-        <v>262.4307250976562</v>
+        <v>583.9928588867188</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="n">
-        <v>262.4307250976562</v>
+        <v>544.572509765625</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="n">
-        <v>297.7090454101562</v>
+        <v>524.1311645507812</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="n">
-        <v>297.7090454101562</v>
+        <v>620.7266845703125</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="n">
-        <v>297.7090454101562</v>
+        <v>583.9928588867188</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="n">
-        <v>341.6290588378906</v>
+        <v>544.572509765625</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="n">
-        <v>341.6290588378906</v>
+        <v>524.1311645507812</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="n">
-        <v>341.6290588378906</v>
+        <v>620.7266845703125</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="n">
-        <v>392.2279052734375</v>
+        <v>583.9928588867188</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="n">
-        <v>392.2279052734375</v>
+        <v>544.572509765625</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="n">
-        <v>392.2279052734375</v>
+        <v>524.1311645507812</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="n">
-        <v>278.0438842773438</v>
+        <v>530.798095703125</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="n">
-        <v>278.0455322265625</v>
+        <v>530.798095703125</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="n">
-        <v>278.7598571777344</v>
+        <v>530.798095703125</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="n">
-        <v>278.1420593261719</v>
+        <v>556.3799438476562</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="n">
-        <v>288.1239318847656</v>
+        <v>632.8948974609375</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="n">
-        <v>296.9795227050781</v>
+        <v>632.8948974609375</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="n">
-        <v>293.3959350585938</v>
+        <v>516.0422973632812</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="n">
-        <v>336.75634765625</v>
+        <v>516.0159912109375</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="n">
-        <v>278.8662719726562</v>
+        <v>521.2003173828125</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="n">
-        <v>337.4300537109375</v>
+        <v>580.6863403320312</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="n">
-        <v>375.0652770996094</v>
+        <v>616.5311279296875</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="n">
-        <v>422.37939453125</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="n">
-        <v>293.9132385253906</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="n">
-        <v>434.0480346679688</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="n">
-        <v>518.8748779296875</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="n">
-        <v>616.3900756835938</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="n">
-        <v>701.802490234375</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="n">
-        <v>293.9132385253906</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="n">
-        <v>255.0823364257812</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="n">
-        <v>330.0727233886719</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="n">
-        <v>511.1471557617188</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="n">
-        <v>330.0727233886719</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="n">
-        <v>551.0037231445312</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="n">
-        <v>334.4093017578125</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="n">
-        <v>554.1619873046875</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="n">
-        <v>334.4093017578125</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="n">
-        <v>515.34326171875</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="n">
-        <v>445.7457275390625</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="n">
-        <v>599.4027709960938</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="n">
-        <v>445.7457275390625</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="n">
-        <v>604.3197631835938</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="n">
-        <v>335.236572265625</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="n">
-        <v>384.7993774414062</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="n">
-        <v>408.6616516113281</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="n">
-        <v>409.2951965332031</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="n">
-        <v>431.6380004882812</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="n">
-        <v>460.9809265136719</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="n">
-        <v>462.103515625</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="n">
-        <v>468.2610778808594</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="n">
-        <v>510.7858276367188</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="n">
-        <v>516.3607177734375</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="n">
-        <v>523.1221923828125</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="n">
-        <v>528.8089599609375</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="n">
-        <v>557.1024780273438</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="n">
-        <v>560.6177978515625</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="n">
-        <v>563.3659057617188</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="n">
-        <v>572.5027465820312</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="n">
-        <v>593.0006103515625</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="n">
-        <v>338.721435546875</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="n">
-        <v>417.1363220214844</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="n">
-        <v>462.6102294921875</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="n">
-        <v>519.24951171875</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="n">
-        <v>550.021484375</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="n">
-        <v>601.5361938476562</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="n">
-        <v>649.2347412109375</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="n">
-        <v>318.8970947265625</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="n">
-        <v>316.6671752929688</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="n">
-        <v>314.4508972167969</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="n">
-        <v>311.89990234375</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="n">
-        <v>308.9557495117188</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="n">
-        <v>304.7914733886719</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="n">
-        <v>301.0973205566406</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="n">
-        <v>296.1833801269531</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="n">
-        <v>290.5406188964844</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="n">
-        <v>283.8604736328125</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="n">
-        <v>276.729248046875</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="n">
-        <v>268.63037109375</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="n">
-        <v>263.0795593261719</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="n">
-        <v>251.7076110839844</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="n">
-        <v>244.695068359375</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="n">
-        <v>236.9580078125</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="n">
-        <v>232.4388885498047</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="n">
-        <v>227.3464813232422</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="n">
-        <v>226.4230651855469</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="n">
-        <v>228.2760620117188</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="n">
-        <v>232.3011016845703</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="n">
-        <v>228.5916900634766</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="n">
-        <v>226.3998718261719</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="n">
-        <v>227.76171875</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="n">
-        <v>232.6385040283203</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="n">
-        <v>238.6490631103516</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="n">
-        <v>245.748046875</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="n">
-        <v>253.0410461425781</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="n">
-        <v>262.3324279785156</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="n">
-        <v>269.9341125488281</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="n">
-        <v>277.452880859375</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="n">
-        <v>284.3671264648438</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="n">
-        <v>290.0598449707031</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="n">
-        <v>296.3511962890625</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="n">
-        <v>301.5485229492188</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="n">
-        <v>305.6378479003906</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="n">
-        <v>308.8501281738281</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="n">
-        <v>311.768310546875</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="n">
-        <v>314.8384399414062</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="n">
-        <v>317.0606079101562</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="n">
-        <v>319.0234069824219</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="n">
-        <v>502.5887145996094</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="n">
-        <v>497.4170837402344</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="n">
-        <v>488.825439453125</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="n">
-        <v>471.0592346191406</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="n">
-        <v>455.8634948730469</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="n">
-        <v>437.8303833007812</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" t="n">
-        <v>433.4600830078125</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" t="n">
-        <v>434.55126953125</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="n">
-        <v>438.7936401367188</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="n">
-        <v>444.3258972167969</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="n">
-        <v>453.1802978515625</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="n">
-        <v>462.1015319824219</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="n">
-        <v>467.2240295410156</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="n">
-        <v>471.0713500976562</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="n">
-        <v>502.6263427734375</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="n">
-        <v>488.6771545410156</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="n">
-        <v>456.0962219238281</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="n">
-        <v>433.4673767089844</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" t="n">
-        <v>438.6404113769531</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" t="n">
-        <v>443.5669860839844</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" t="n">
-        <v>311.1143798828125</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" t="n">
-        <v>305.448486328125</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="n">
-        <v>300.0884399414062</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" t="n">
-        <v>295.2121887207031</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="n">
-        <v>290.3287658691406</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="n">
-        <v>285.400390625</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="n">
-        <v>281.4247741699219</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="n">
-        <v>277.0624084472656</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="n">
-        <v>271.6070861816406</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="n">
-        <v>267.07470703125</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="n">
-        <v>262.1144104003906</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="n">
-        <v>256.5902404785156</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="n">
-        <v>251.7234039306641</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="n">
-        <v>245.4053649902344</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="n">
-        <v>238.6279144287109</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="n">
-        <v>231.7962646484375</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1">
-      <c r="A501" t="n">
-        <v>225.4122467041016</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1">
-      <c r="A502" t="n">
-        <v>211.9135589599609</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1">
-      <c r="A503" t="n">
-        <v>206.2457885742188</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" t="n">
-        <v>201.1775665283203</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" t="n">
-        <v>206.3154602050781</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1">
-      <c r="A506" t="n">
-        <v>212.9752197265625</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1">
-      <c r="A507" t="n">
-        <v>220.0814208984375</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1">
-      <c r="A508" t="n">
-        <v>226.3105773925781</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1">
-      <c r="A509" t="n">
-        <v>233.7822570800781</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1">
-      <c r="A510" t="n">
-        <v>239.51123046875</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1">
-      <c r="A511" t="n">
-        <v>246.370849609375</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1">
-      <c r="A512" t="n">
-        <v>252.4928283691406</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" t="n">
-        <v>256.7367553710938</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1">
-      <c r="A514" t="n">
-        <v>262.138427734375</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1">
-      <c r="A515" t="n">
-        <v>267.21875</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1">
-      <c r="A516" t="n">
-        <v>272.4834899902344</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1">
-      <c r="A517" t="n">
-        <v>277.1927795410156</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1">
-      <c r="A518" t="n">
-        <v>281.2577819824219</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1">
-      <c r="A519" t="n">
-        <v>285.5614013671875</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1">
-      <c r="A520" t="n">
-        <v>290.1719665527344</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1">
-      <c r="A521" t="n">
-        <v>295.3888854980469</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1">
-      <c r="A522" t="n">
-        <v>300.6295471191406</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1">
-      <c r="A523" t="n">
-        <v>306.3999633789062</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1">
-      <c r="A524" t="n">
-        <v>311.993896484375</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1">
-      <c r="A525" t="n">
-        <v>206.4951477050781</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1">
-      <c r="A526" t="n">
-        <v>212.0989379882812</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1">
-      <c r="A527" t="n">
-        <v>218.8306884765625</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1">
-      <c r="A528" t="n">
-        <v>226.2836303710938</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1">
-      <c r="A529" t="n">
-        <v>232.8683624267578</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1">
-      <c r="A530" t="n">
-        <v>239.8024444580078</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1">
-      <c r="A531" t="n">
-        <v>245.5753479003906</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1">
-      <c r="A532" t="n">
-        <v>251.5129699707031</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1">
-      <c r="A533" t="n">
-        <v>257.7185363769531</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1">
-      <c r="A534" t="n">
-        <v>262.4014282226562</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1">
-      <c r="A535" t="n">
-        <v>267.6548461914062</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1">
-      <c r="A536" t="n">
-        <v>272.2853393554688</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1">
-      <c r="A537" t="n">
-        <v>276.8215637207031</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1">
-      <c r="A538" t="n">
-        <v>281.1236572265625</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1">
-      <c r="A539" t="n">
-        <v>286.0352172851562</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1">
-      <c r="A540" t="n">
-        <v>290.2611694335938</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" t="n">
-        <v>295.9210205078125</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1">
-      <c r="A542" t="n">
-        <v>300.3096313476562</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1">
-      <c r="A543" t="n">
-        <v>306.5224609375</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1">
-      <c r="A544" t="n">
-        <v>311.9034729003906</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1">
-      <c r="A545" t="n">
-        <v>248.7908935546875</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1">
-      <c r="A546" t="n">
-        <v>583.3150634765625</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" t="n">
-        <v>394.2474060058594</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1">
-      <c r="A548" t="n">
-        <v>396.6238403320312</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1">
-      <c r="A549" t="n">
-        <v>401.3390808105469</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1">
-      <c r="A550" t="n">
-        <v>403.6775512695312</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1">
-      <c r="A551" t="n">
-        <v>389.4576416015625</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1">
-      <c r="A552" t="n">
-        <v>394.2474060058594</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" t="n">
-        <v>389.4576416015625</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1">
-      <c r="A554" t="n">
-        <v>389.4576416015625</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" t="n">
-        <v>389.4576416015625</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1">
-      <c r="A556" t="n">
-        <v>389.4576416015625</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1">
-      <c r="A557" t="n">
-        <v>424.1354675292969</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1">
-      <c r="A558" t="n">
-        <v>424.1354675292969</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" t="n">
-        <v>424.1354675292969</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1">
-      <c r="A560" t="n">
-        <v>453.718017578125</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1">
-      <c r="A561" t="n">
-        <v>455.7217407226562</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1">
-      <c r="A562" t="n">
-        <v>455.7217407226562</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1">
-      <c r="A563" t="n">
-        <v>455.7217407226562</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1">
-      <c r="A564" t="n">
-        <v>494.3092956542969</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" t="n">
-        <v>492.6240844726562</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566" t="n">
-        <v>494.3092956542969</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567" t="n">
-        <v>494.3092956542969</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568" t="n">
-        <v>482.1925354003906</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569" t="n">
-        <v>482.1925354003906</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1">
-      <c r="A570" t="n">
-        <v>483.9692077636719</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571" t="n">
-        <v>480.4004516601562</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1">
-      <c r="A572" t="n">
-        <v>584.198974609375</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1">
-      <c r="A573" t="n">
-        <v>584.6552734375</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1">
-      <c r="A574" t="n">
-        <v>583.738037109375</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1">
-      <c r="A575" t="n">
-        <v>373.6718139648438</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1">
-      <c r="A576" t="n">
-        <v>470.7108154296875</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1">
-      <c r="A577" t="n">
-        <v>470.7108154296875</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1">
-      <c r="A578" t="n">
-        <v>470.7108154296875</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1">
-      <c r="A579" t="n">
-        <v>472.03125</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1">
-      <c r="A580" t="n">
-        <v>570.7442626953125</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581" t="n">
-        <v>571.357666015625</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1">
-      <c r="A582" t="n">
-        <v>570.7442626953125</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1">
-      <c r="A583" t="n">
-        <v>621.99658203125</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1">
-      <c r="A584" t="n">
-        <v>622.0301513671875</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1">
-      <c r="A585" t="n">
-        <v>621.9622192382812</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1">
-      <c r="A586" t="n">
-        <v>623.0421142578125</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1">
-      <c r="A587" t="n">
-        <v>623.0421142578125</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1">
-      <c r="A588" t="n">
-        <v>632.1904296875</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1">
-      <c r="A589" t="n">
-        <v>632.34423828125</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1">
-      <c r="A590" t="n">
-        <v>684.7890625</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1">
-      <c r="A591" t="n">
-        <v>658.026123046875</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1">
-      <c r="A592" t="n">
-        <v>657.1569213867188</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1">
-      <c r="A593" t="n">
-        <v>657.9388427734375</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1">
-      <c r="A594" t="n">
-        <v>638.238525390625</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1">
-      <c r="A595" t="n">
-        <v>638.238525390625</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1">
-      <c r="A596" t="n">
-        <v>638.4925537109375</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1">
-      <c r="A597" t="n">
-        <v>638.44140625</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1">
-      <c r="A598" t="n">
-        <v>630.5858764648438</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1">
-      <c r="A599" t="n">
-        <v>630.5858764648438</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1">
-      <c r="A600" t="n">
-        <v>630.6014404296875</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601" t="n">
-        <v>630.5858764648438</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1">
-      <c r="A602" t="n">
-        <v>630.5633544921875</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1">
-      <c r="A603" t="n">
-        <v>628.7265625</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1">
-      <c r="A604" t="n">
-        <v>628.5504760742188</v>
-      </c>
-    </row>
-    <row r="605" spans="1:1">
-      <c r="A605" t="n">
-        <v>628.5689697265625</v>
-      </c>
-    </row>
-    <row r="606" spans="1:1">
-      <c r="A606" t="n">
-        <v>627.6575317382812</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1">
-      <c r="A607" t="n">
-        <v>627.5802001953125</v>
-      </c>
-    </row>
-    <row r="608" spans="1:1">
-      <c r="A608" t="n">
-        <v>627.5277099609375</v>
-      </c>
-    </row>
-    <row r="609" spans="1:1">
-      <c r="A609" t="n">
-        <v>575.111083984375</v>
-      </c>
-    </row>
-    <row r="610" spans="1:1">
-      <c r="A610" t="n">
-        <v>575.5032348632812</v>
-      </c>
-    </row>
-    <row r="611" spans="1:1">
-      <c r="A611" t="n">
-        <v>575.5032348632812</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1">
-      <c r="A612" t="n">
-        <v>575.8934326171875</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1">
-      <c r="A613" t="n">
-        <v>575.111083984375</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1">
-      <c r="A614" t="n">
-        <v>563.2283935546875</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1">
-      <c r="A615" t="n">
-        <v>563.2283935546875</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1">
-      <c r="A616" t="n">
-        <v>565.0352783203125</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1">
-      <c r="A617" t="n">
-        <v>565.0352783203125</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1">
-      <c r="A618" t="n">
-        <v>577.0506591796875</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1">
-      <c r="A619" t="n">
-        <v>565.0352783203125</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1">
-      <c r="A620" t="n">
-        <v>452.7194213867188</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1">
-      <c r="A621" t="n">
-        <v>450.9066162109375</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1">
-      <c r="A622" t="n">
-        <v>462.4918518066406</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1">
-      <c r="A623" t="n">
-        <v>464.2322387695312</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1">
-      <c r="A624" t="n">
-        <v>461.617431640625</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1">
-      <c r="A625" t="n">
-        <v>463.3633728027344</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1">
-      <c r="A626" t="n">
-        <v>463.3633728027344</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1">
-      <c r="A627" t="n">
-        <v>360.18701171875</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1">
-      <c r="A628" t="n">
-        <v>361.2996520996094</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1">
-      <c r="A629" t="n">
-        <v>361.2996520996094</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1">
-      <c r="A630" t="n">
-        <v>359.0726623535156</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1">
-      <c r="A631" t="n">
-        <v>355.7196655273438</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1">
-      <c r="A632" t="n">
-        <v>356.8388671875</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1">
-      <c r="A633" t="n">
-        <v>390.3326721191406</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1">
-      <c r="A634" t="n">
-        <v>390.3326721191406</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1">
-      <c r="A635" t="n">
-        <v>400.6065673828125</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1">
-      <c r="A636" t="n">
-        <v>404.404052734375</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1">
-      <c r="A637" t="n">
-        <v>418.6720275878906</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1">
-      <c r="A638" t="n">
-        <v>425.2374572753906</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1">
-      <c r="A639" t="n">
-        <v>430.6680603027344</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1">
-      <c r="A640" t="n">
-        <v>439.302978515625</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1">
-      <c r="A641" t="n">
-        <v>438.6155090332031</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1">
-      <c r="A642" t="n">
-        <v>445.8680725097656</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1">
-      <c r="A643" t="n">
-        <v>518.0172729492188</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1">
-      <c r="A644" t="n">
-        <v>537.9468994140625</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1">
-      <c r="A645" t="n">
-        <v>557.534423828125</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1">
-      <c r="A646" t="n">
-        <v>578.4558715820312</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1">
-      <c r="A647" t="n">
-        <v>607.833740234375</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1">
-      <c r="A648" t="n">
-        <v>617.0936279296875</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1">
-      <c r="A649" t="n">
-        <v>620.3495483398438</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1">
-      <c r="A650" t="n">
-        <v>627.618896484375</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1">
-      <c r="A651" t="n">
-        <v>391.0997924804688</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1">
-      <c r="A652" t="n">
-        <v>391.1541137695312</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1">
-      <c r="A653" t="n">
-        <v>395.6846923828125</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1">
-      <c r="A654" t="n">
-        <v>456.41748046875</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1">
-      <c r="A655" t="n">
-        <v>502.6818237304688</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1">
-      <c r="A656" t="n">
-        <v>580.3172607421875</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1">
-      <c r="A657" t="n">
-        <v>592.6202392578125</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1">
-      <c r="A658" t="n">
-        <v>585.3338623046875</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659" t="n">
-        <v>353.6689147949219</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1">
-      <c r="A660" t="n">
-        <v>360.8998718261719</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1">
-      <c r="A661" t="n">
-        <v>364.0481262207031</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1">
-      <c r="A662" t="n">
-        <v>364.0481262207031</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1">
-      <c r="A663" t="n">
-        <v>395.6833190917969</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1">
-      <c r="A664" t="n">
-        <v>386.9415893554688</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1">
-      <c r="A665" t="n">
-        <v>390.3664855957031</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1">
-      <c r="A666" t="n">
-        <v>426.145751953125</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1">
-      <c r="A667" t="n">
-        <v>463.1646728515625</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1">
-      <c r="A668" t="n">
-        <v>483.8974304199219</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1">
-      <c r="A669" t="n">
-        <v>473.7616577148438</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1">
-      <c r="A670" t="n">
-        <v>484.8145751953125</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1">
-      <c r="A671" t="n">
-        <v>543.189208984375</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1">
-      <c r="A672" t="n">
-        <v>580.5005493164062</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1">
-      <c r="A673" t="n">
-        <v>612.3798828125</v>
-      </c>
-    </row>
-    <row r="674" spans="1:1">
-      <c r="A674" t="n">
-        <v>614.8792724609375</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1">
-      <c r="A675" t="n">
-        <v>669.028076171875</v>
-      </c>
-    </row>
-    <row r="676" spans="1:1">
-      <c r="A676" t="n">
-        <v>388.61474609375</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1">
-      <c r="A677" t="n">
-        <v>349.6824951171875</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1">
-      <c r="A678" t="n">
-        <v>320.4782104492188</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1">
-      <c r="A679" t="n">
-        <v>281.4690856933594</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1">
-      <c r="A680" t="n">
-        <v>388.61474609375</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1">
-      <c r="A681" t="n">
-        <v>349.6824951171875</v>
-      </c>
-    </row>
-    <row r="682" spans="1:1">
-      <c r="A682" t="n">
-        <v>320.4782104492188</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1">
-      <c r="A683" t="n">
-        <v>281.4690856933594</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1">
-      <c r="A684" t="n">
-        <v>388.61474609375</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1">
-      <c r="A685" t="n">
-        <v>349.6824951171875</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1">
-      <c r="A686" t="n">
-        <v>320.4782104492188</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1">
-      <c r="A687" t="n">
-        <v>281.4690856933594</v>
-      </c>
-    </row>
-    <row r="688" spans="1:1">
-      <c r="A688" t="n">
-        <v>386.8336791992188</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1">
-      <c r="A689" t="n">
-        <v>343.4018859863281</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1">
-      <c r="A690" t="n">
-        <v>324.4628295898438</v>
-      </c>
-    </row>
-    <row r="691" spans="1:1">
-      <c r="A691" t="n">
-        <v>285.7652893066406</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1">
-      <c r="A692" t="n">
-        <v>386.8336791992188</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1">
-      <c r="A693" t="n">
-        <v>343.4018859863281</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1">
-      <c r="A694" t="n">
-        <v>324.4628295898438</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1">
-      <c r="A695" t="n">
-        <v>285.7652893066406</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1">
-      <c r="A696" t="n">
-        <v>386.8336791992188</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1">
-      <c r="A697" t="n">
-        <v>343.4018859863281</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1">
-      <c r="A698" t="n">
-        <v>324.4628295898438</v>
-      </c>
-    </row>
-    <row r="699" spans="1:1">
-      <c r="A699" t="n">
-        <v>285.7652893066406</v>
-      </c>
-    </row>
-    <row r="700" spans="1:1">
-      <c r="A700" t="n">
-        <v>386.9578552246094</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1">
-      <c r="A701" t="n">
-        <v>349.8741149902344</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1">
-      <c r="A702" t="n">
-        <v>317.9214782714844</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1">
-      <c r="A703" t="n">
-        <v>287.3099975585938</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1">
-      <c r="A704" t="n">
-        <v>386.9578552246094</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1">
-      <c r="A705" t="n">
-        <v>349.8741149902344</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1">
-      <c r="A706" t="n">
-        <v>317.9214782714844</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1">
-      <c r="A707" t="n">
-        <v>287.3099975585938</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1">
-      <c r="A708" t="n">
-        <v>386.9578552246094</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1">
-      <c r="A709" t="n">
-        <v>349.8741149902344</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1">
-      <c r="A710" t="n">
-        <v>317.9214782714844</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1">
-      <c r="A711" t="n">
-        <v>287.3099975585938</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1">
-      <c r="A712" t="n">
-        <v>389.2713012695312</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1">
-      <c r="A713" t="n">
-        <v>342.24462890625</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1">
-      <c r="A714" t="n">
-        <v>322.3049926757812</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1">
-      <c r="A715" t="n">
-        <v>281.0032958984375</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1">
-      <c r="A716" t="n">
-        <v>389.2713012695312</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1">
-      <c r="A717" t="n">
-        <v>342.24462890625</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1">
-      <c r="A718" t="n">
-        <v>322.3049926757812</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1">
-      <c r="A719" t="n">
-        <v>281.0032958984375</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1">
-      <c r="A720" t="n">
-        <v>389.2713012695312</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1">
-      <c r="A721" t="n">
-        <v>342.24462890625</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1">
-      <c r="A722" t="n">
-        <v>322.3049926757812</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1">
-      <c r="A723" t="n">
-        <v>281.0032958984375</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1">
-      <c r="A724" t="n">
-        <v>385.6685791015625</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1">
-      <c r="A725" t="n">
-        <v>345.8619995117188</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1">
-      <c r="A726" t="n">
-        <v>320.3074951171875</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1">
-      <c r="A727" t="n">
-        <v>280.9602661132812</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1">
-      <c r="A728" t="n">
-        <v>385.6685791015625</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1">
-      <c r="A729" t="n">
-        <v>345.8619995117188</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1">
-      <c r="A730" t="n">
-        <v>320.3074951171875</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1">
-      <c r="A731" t="n">
-        <v>280.9602661132812</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1">
-      <c r="A732" t="n">
-        <v>385.6685791015625</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1">
-      <c r="A733" t="n">
-        <v>345.8619995117188</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1">
-      <c r="A734" t="n">
-        <v>320.3074951171875</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1">
-      <c r="A735" t="n">
-        <v>280.9602661132812</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1">
-      <c r="A736" t="n">
-        <v>289.9075927734375</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1">
-      <c r="A737" t="n">
-        <v>289.9075927734375</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1">
-      <c r="A738" t="n">
-        <v>289.9075927734375</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1">
-      <c r="A739" t="n">
-        <v>329.5362548828125</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1">
-      <c r="A740" t="n">
-        <v>329.5362548828125</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1">
-      <c r="A741" t="n">
-        <v>329.5362548828125</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1">
-      <c r="A742" t="n">
-        <v>350.3145141601562</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1">
-      <c r="A743" t="n">
-        <v>350.3145141601562</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1">
-      <c r="A744" t="n">
-        <v>350.3145141601562</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1">
-      <c r="A745" t="n">
-        <v>389.8861389160156</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1">
-      <c r="A746" t="n">
-        <v>389.8861389160156</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1">
-      <c r="A747" t="n">
-        <v>389.8861389160156</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1">
-      <c r="A748" t="n">
-        <v>275.5448303222656</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1">
-      <c r="A749" t="n">
-        <v>275.466796875</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1">
-      <c r="A750" t="n">
-        <v>289.3011169433594</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1">
-      <c r="A751" t="n">
-        <v>282.6078796386719</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1">
-      <c r="A752" t="n">
-        <v>312.5958862304688</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1">
-      <c r="A753" t="n">
-        <v>319.8140869140625</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1">
-      <c r="A754" t="n">
-        <v>317.4748840332031</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1">
-      <c r="A755" t="n">
-        <v>345.11083984375</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1">
-      <c r="A756" t="n">
-        <v>290.0505676269531</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" t="n">
-        <v>345.8747863769531</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1">
-      <c r="A758" t="n">
-        <v>387.1178588867188</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1">
-      <c r="A759" t="n">
-        <v>394.345458984375</v>
+        <v>655.5399169921875</v>
       </c>
     </row>
   </sheetData>
